--- a/기획/시스템 기획/시스템 기획 양식.xlsx
+++ b/기획/시스템 기획/시스템 기획 양식.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\0623_\Desktop\1team_UnityProject\기획\시스템 기획\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A7C7F8CF-EF57-4B9F-B670-13363B669D20}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CE28562-B77B-43D4-BA9D-0A8B24C0DC80}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{DD11F2F4-2E31-48F2-A5FF-40AACB5569F8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{DD11F2F4-2E31-48F2-A5FF-40AACB5569F8}"/>
   </bookViews>
   <sheets>
     <sheet name="요구 기능" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="21">
   <si>
     <r>
       <t xml:space="preserve">  System : </t>
@@ -71,10 +71,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Image PlayBtn</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve"> 구조&amp;규칙</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -108,6 +104,26 @@
   </si>
   <si>
     <t xml:space="preserve">  시퀀스</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>size</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Image playBtn</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>구조&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>규칙&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>클릭 시, 스테이지 화면으로 전환</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -115,7 +131,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -180,6 +196,14 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -403,7 +427,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -428,6 +452,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -466,6 +493,9 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -856,9 +886,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1418D2FF-F25B-48B8-A183-D103E9189CDD}">
   <dimension ref="A1:O32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="O17" sqref="O17"/>
+      <selection pane="bottomLeft" activeCell="Q17" sqref="Q17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -908,7 +938,7 @@
     <row r="4" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
     <row r="6" spans="1:15" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B6" s="6"/>
-      <c r="C6" s="20" t="s">
+      <c r="C6" s="21" t="s">
         <v>2</v>
       </c>
       <c r="D6" s="5"/>
@@ -924,368 +954,368 @@
     </row>
     <row r="7" spans="1:15" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="8" spans="1:15" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C8" s="19" t="s">
+      <c r="C8" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="D8" s="17" t="s">
+      <c r="D8" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="E8" s="17"/>
-      <c r="F8" s="17"/>
-      <c r="G8" s="17"/>
-      <c r="H8" s="17"/>
-      <c r="I8" s="17"/>
-      <c r="J8" s="17"/>
-      <c r="K8" s="17"/>
-      <c r="L8" s="18"/>
+      <c r="E8" s="18"/>
+      <c r="F8" s="18"/>
+      <c r="G8" s="18"/>
+      <c r="H8" s="18"/>
+      <c r="I8" s="18"/>
+      <c r="J8" s="18"/>
+      <c r="K8" s="18"/>
+      <c r="L8" s="19"/>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="C9" s="14">
+      <c r="C9" s="15">
         <v>1</v>
       </c>
-      <c r="D9" s="15" t="s">
+      <c r="D9" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="E9" s="16"/>
+      <c r="F9" s="16"/>
+      <c r="G9" s="16"/>
+      <c r="H9" s="16"/>
+      <c r="I9" s="16"/>
+      <c r="J9" s="16"/>
+      <c r="K9" s="16"/>
+      <c r="L9" s="17"/>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="C10" s="15">
+        <v>2</v>
+      </c>
+      <c r="D10" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="E9" s="15"/>
-      <c r="F9" s="15"/>
-      <c r="G9" s="15"/>
-      <c r="H9" s="15"/>
-      <c r="I9" s="15"/>
-      <c r="J9" s="15"/>
-      <c r="K9" s="15"/>
-      <c r="L9" s="16"/>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="C10" s="14">
-        <v>2</v>
-      </c>
-      <c r="D10" s="9" t="s">
+      <c r="E10" s="10"/>
+      <c r="F10" s="10"/>
+      <c r="G10" s="10"/>
+      <c r="H10" s="10"/>
+      <c r="I10" s="10"/>
+      <c r="J10" s="10"/>
+      <c r="K10" s="10"/>
+      <c r="L10" s="11"/>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="C11" s="15">
+        <v>3</v>
+      </c>
+      <c r="D11" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="E11" s="10"/>
+      <c r="F11" s="10"/>
+      <c r="G11" s="10"/>
+      <c r="H11" s="10"/>
+      <c r="I11" s="10"/>
+      <c r="J11" s="10"/>
+      <c r="K11" s="10"/>
+      <c r="L11" s="11"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="C12" s="15">
+        <v>4</v>
+      </c>
+      <c r="D12" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="E10" s="9"/>
-      <c r="F10" s="9"/>
-      <c r="G10" s="9"/>
-      <c r="H10" s="9"/>
-      <c r="I10" s="9"/>
-      <c r="J10" s="9"/>
-      <c r="K10" s="9"/>
-      <c r="L10" s="10"/>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="C11" s="14">
-        <v>3</v>
-      </c>
-      <c r="D11" s="9" t="s">
+      <c r="E12" s="10"/>
+      <c r="F12" s="10"/>
+      <c r="G12" s="10"/>
+      <c r="H12" s="10"/>
+      <c r="I12" s="10"/>
+      <c r="J12" s="10"/>
+      <c r="K12" s="10"/>
+      <c r="L12" s="11"/>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="C13" s="15">
+        <v>5</v>
+      </c>
+      <c r="D13" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="E11" s="9"/>
-      <c r="F11" s="9"/>
-      <c r="G11" s="9"/>
-      <c r="H11" s="9"/>
-      <c r="I11" s="9"/>
-      <c r="J11" s="9"/>
-      <c r="K11" s="9"/>
-      <c r="L11" s="10"/>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="C12" s="14">
-        <v>4</v>
-      </c>
-      <c r="D12" s="9" t="s">
+      <c r="E13" s="10"/>
+      <c r="F13" s="10"/>
+      <c r="G13" s="10"/>
+      <c r="H13" s="10"/>
+      <c r="I13" s="10"/>
+      <c r="J13" s="10"/>
+      <c r="K13" s="10"/>
+      <c r="L13" s="11"/>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="C14" s="15">
+        <v>6</v>
+      </c>
+      <c r="D14" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="E14" s="10"/>
+      <c r="F14" s="10"/>
+      <c r="G14" s="10"/>
+      <c r="H14" s="10"/>
+      <c r="I14" s="10"/>
+      <c r="J14" s="10"/>
+      <c r="K14" s="10"/>
+      <c r="L14" s="11"/>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="C15" s="15">
+        <v>7</v>
+      </c>
+      <c r="D15" s="10"/>
+      <c r="E15" s="10"/>
+      <c r="F15" s="10"/>
+      <c r="G15" s="10"/>
+      <c r="H15" s="10"/>
+      <c r="I15" s="10"/>
+      <c r="J15" s="10"/>
+      <c r="K15" s="10"/>
+      <c r="L15" s="11"/>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="C16" s="15">
+        <v>8</v>
+      </c>
+      <c r="D16" s="10"/>
+      <c r="E16" s="10"/>
+      <c r="F16" s="10"/>
+      <c r="G16" s="10"/>
+      <c r="H16" s="10"/>
+      <c r="I16" s="10"/>
+      <c r="J16" s="10"/>
+      <c r="K16" s="10"/>
+      <c r="L16" s="11"/>
+    </row>
+    <row r="17" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="C17" s="15">
+        <v>9</v>
+      </c>
+      <c r="D17" s="10"/>
+      <c r="E17" s="10"/>
+      <c r="F17" s="10"/>
+      <c r="G17" s="10"/>
+      <c r="H17" s="10"/>
+      <c r="I17" s="10"/>
+      <c r="J17" s="10"/>
+      <c r="K17" s="10"/>
+      <c r="L17" s="11"/>
+    </row>
+    <row r="18" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="C18" s="15">
+        <v>10</v>
+      </c>
+      <c r="D18" s="10"/>
+      <c r="E18" s="10"/>
+      <c r="F18" s="10"/>
+      <c r="G18" s="10"/>
+      <c r="H18" s="10"/>
+      <c r="I18" s="10"/>
+      <c r="J18" s="10"/>
+      <c r="K18" s="10"/>
+      <c r="L18" s="11"/>
+    </row>
+    <row r="19" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="C19" s="15">
         <v>11</v>
       </c>
-      <c r="E12" s="9"/>
-      <c r="F12" s="9"/>
-      <c r="G12" s="9"/>
-      <c r="H12" s="9"/>
-      <c r="I12" s="9"/>
-      <c r="J12" s="9"/>
-      <c r="K12" s="9"/>
-      <c r="L12" s="10"/>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="C13" s="14">
-        <v>5</v>
-      </c>
-      <c r="D13" s="9" t="s">
+      <c r="D19" s="10"/>
+      <c r="E19" s="10"/>
+      <c r="F19" s="10"/>
+      <c r="G19" s="10"/>
+      <c r="H19" s="10"/>
+      <c r="I19" s="10"/>
+      <c r="J19" s="10"/>
+      <c r="K19" s="10"/>
+      <c r="L19" s="11"/>
+    </row>
+    <row r="20" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="C20" s="15">
+        <v>12</v>
+      </c>
+      <c r="D20" s="10"/>
+      <c r="E20" s="10"/>
+      <c r="F20" s="10"/>
+      <c r="G20" s="10"/>
+      <c r="H20" s="10"/>
+      <c r="I20" s="10"/>
+      <c r="J20" s="10"/>
+      <c r="K20" s="10"/>
+      <c r="L20" s="11"/>
+    </row>
+    <row r="21" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="C21" s="15">
         <v>13</v>
       </c>
-      <c r="E13" s="9"/>
-      <c r="F13" s="9"/>
-      <c r="G13" s="9"/>
-      <c r="H13" s="9"/>
-      <c r="I13" s="9"/>
-      <c r="J13" s="9"/>
-      <c r="K13" s="9"/>
-      <c r="L13" s="10"/>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="C14" s="14">
-        <v>6</v>
-      </c>
-      <c r="D14" s="9" t="s">
+      <c r="D21" s="10"/>
+      <c r="E21" s="10"/>
+      <c r="F21" s="10"/>
+      <c r="G21" s="10"/>
+      <c r="H21" s="10"/>
+      <c r="I21" s="10"/>
+      <c r="J21" s="10"/>
+      <c r="K21" s="10"/>
+      <c r="L21" s="11"/>
+    </row>
+    <row r="22" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="C22" s="15">
         <v>14</v>
       </c>
-      <c r="E14" s="9"/>
-      <c r="F14" s="9"/>
-      <c r="G14" s="9"/>
-      <c r="H14" s="9"/>
-      <c r="I14" s="9"/>
-      <c r="J14" s="9"/>
-      <c r="K14" s="9"/>
-      <c r="L14" s="10"/>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="C15" s="14">
-        <v>7</v>
-      </c>
-      <c r="D15" s="9"/>
-      <c r="E15" s="9"/>
-      <c r="F15" s="9"/>
-      <c r="G15" s="9"/>
-      <c r="H15" s="9"/>
-      <c r="I15" s="9"/>
-      <c r="J15" s="9"/>
-      <c r="K15" s="9"/>
-      <c r="L15" s="10"/>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="C16" s="14">
-        <v>8</v>
-      </c>
-      <c r="D16" s="9"/>
-      <c r="E16" s="9"/>
-      <c r="F16" s="9"/>
-      <c r="G16" s="9"/>
-      <c r="H16" s="9"/>
-      <c r="I16" s="9"/>
-      <c r="J16" s="9"/>
-      <c r="K16" s="9"/>
-      <c r="L16" s="10"/>
-    </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.3">
-      <c r="C17" s="14">
-        <v>9</v>
-      </c>
-      <c r="D17" s="9"/>
-      <c r="E17" s="9"/>
-      <c r="F17" s="9"/>
-      <c r="G17" s="9"/>
-      <c r="H17" s="9"/>
-      <c r="I17" s="9"/>
-      <c r="J17" s="9"/>
-      <c r="K17" s="9"/>
-      <c r="L17" s="10"/>
-    </row>
-    <row r="18" spans="3:12" x14ac:dyDescent="0.3">
-      <c r="C18" s="14">
-        <v>10</v>
-      </c>
-      <c r="D18" s="9"/>
-      <c r="E18" s="9"/>
-      <c r="F18" s="9"/>
-      <c r="G18" s="9"/>
-      <c r="H18" s="9"/>
-      <c r="I18" s="9"/>
-      <c r="J18" s="9"/>
-      <c r="K18" s="9"/>
-      <c r="L18" s="10"/>
-    </row>
-    <row r="19" spans="3:12" x14ac:dyDescent="0.3">
-      <c r="C19" s="14">
-        <v>11</v>
-      </c>
-      <c r="D19" s="9"/>
-      <c r="E19" s="9"/>
-      <c r="F19" s="9"/>
-      <c r="G19" s="9"/>
-      <c r="H19" s="9"/>
-      <c r="I19" s="9"/>
-      <c r="J19" s="9"/>
-      <c r="K19" s="9"/>
-      <c r="L19" s="10"/>
-    </row>
-    <row r="20" spans="3:12" x14ac:dyDescent="0.3">
-      <c r="C20" s="14">
-        <v>12</v>
-      </c>
-      <c r="D20" s="9"/>
-      <c r="E20" s="9"/>
-      <c r="F20" s="9"/>
-      <c r="G20" s="9"/>
-      <c r="H20" s="9"/>
-      <c r="I20" s="9"/>
-      <c r="J20" s="9"/>
-      <c r="K20" s="9"/>
-      <c r="L20" s="10"/>
-    </row>
-    <row r="21" spans="3:12" x14ac:dyDescent="0.3">
-      <c r="C21" s="14">
-        <v>13</v>
-      </c>
-      <c r="D21" s="9"/>
-      <c r="E21" s="9"/>
-      <c r="F21" s="9"/>
-      <c r="G21" s="9"/>
-      <c r="H21" s="9"/>
-      <c r="I21" s="9"/>
-      <c r="J21" s="9"/>
-      <c r="K21" s="9"/>
-      <c r="L21" s="10"/>
-    </row>
-    <row r="22" spans="3:12" x14ac:dyDescent="0.3">
-      <c r="C22" s="14">
-        <v>14</v>
-      </c>
-      <c r="D22" s="9"/>
-      <c r="E22" s="9"/>
-      <c r="F22" s="9"/>
-      <c r="G22" s="9"/>
-      <c r="H22" s="9"/>
-      <c r="I22" s="9"/>
-      <c r="J22" s="9"/>
-      <c r="K22" s="9"/>
-      <c r="L22" s="10"/>
+      <c r="D22" s="10"/>
+      <c r="E22" s="10"/>
+      <c r="F22" s="10"/>
+      <c r="G22" s="10"/>
+      <c r="H22" s="10"/>
+      <c r="I22" s="10"/>
+      <c r="J22" s="10"/>
+      <c r="K22" s="10"/>
+      <c r="L22" s="11"/>
     </row>
     <row r="23" spans="3:12" x14ac:dyDescent="0.3">
-      <c r="C23" s="14">
+      <c r="C23" s="15">
         <v>15</v>
       </c>
-      <c r="D23" s="9"/>
-      <c r="E23" s="9"/>
-      <c r="F23" s="9"/>
-      <c r="G23" s="9"/>
-      <c r="H23" s="9"/>
-      <c r="I23" s="9"/>
-      <c r="J23" s="9"/>
-      <c r="K23" s="9"/>
-      <c r="L23" s="10"/>
+      <c r="D23" s="10"/>
+      <c r="E23" s="10"/>
+      <c r="F23" s="10"/>
+      <c r="G23" s="10"/>
+      <c r="H23" s="10"/>
+      <c r="I23" s="10"/>
+      <c r="J23" s="10"/>
+      <c r="K23" s="10"/>
+      <c r="L23" s="11"/>
     </row>
     <row r="24" spans="3:12" x14ac:dyDescent="0.3">
-      <c r="C24" s="14">
+      <c r="C24" s="15">
         <v>16</v>
       </c>
-      <c r="D24" s="9"/>
-      <c r="E24" s="9"/>
-      <c r="F24" s="9"/>
-      <c r="G24" s="9"/>
-      <c r="H24" s="9"/>
-      <c r="I24" s="9"/>
-      <c r="J24" s="9"/>
-      <c r="K24" s="9"/>
-      <c r="L24" s="10"/>
+      <c r="D24" s="10"/>
+      <c r="E24" s="10"/>
+      <c r="F24" s="10"/>
+      <c r="G24" s="10"/>
+      <c r="H24" s="10"/>
+      <c r="I24" s="10"/>
+      <c r="J24" s="10"/>
+      <c r="K24" s="10"/>
+      <c r="L24" s="11"/>
     </row>
     <row r="25" spans="3:12" x14ac:dyDescent="0.3">
-      <c r="C25" s="14">
+      <c r="C25" s="15">
         <v>17</v>
       </c>
-      <c r="D25" s="9"/>
-      <c r="E25" s="9"/>
-      <c r="F25" s="9"/>
-      <c r="G25" s="9"/>
-      <c r="H25" s="9"/>
-      <c r="I25" s="9"/>
-      <c r="J25" s="9"/>
-      <c r="K25" s="9"/>
-      <c r="L25" s="10"/>
+      <c r="D25" s="10"/>
+      <c r="E25" s="10"/>
+      <c r="F25" s="10"/>
+      <c r="G25" s="10"/>
+      <c r="H25" s="10"/>
+      <c r="I25" s="10"/>
+      <c r="J25" s="10"/>
+      <c r="K25" s="10"/>
+      <c r="L25" s="11"/>
     </row>
     <row r="26" spans="3:12" x14ac:dyDescent="0.3">
-      <c r="C26" s="14">
+      <c r="C26" s="15">
         <v>18</v>
       </c>
-      <c r="D26" s="9"/>
-      <c r="E26" s="9"/>
-      <c r="F26" s="9"/>
-      <c r="G26" s="9"/>
-      <c r="H26" s="9"/>
-      <c r="I26" s="9"/>
-      <c r="J26" s="9"/>
-      <c r="K26" s="9"/>
-      <c r="L26" s="10"/>
+      <c r="D26" s="10"/>
+      <c r="E26" s="10"/>
+      <c r="F26" s="10"/>
+      <c r="G26" s="10"/>
+      <c r="H26" s="10"/>
+      <c r="I26" s="10"/>
+      <c r="J26" s="10"/>
+      <c r="K26" s="10"/>
+      <c r="L26" s="11"/>
     </row>
     <row r="27" spans="3:12" x14ac:dyDescent="0.3">
-      <c r="C27" s="14">
+      <c r="C27" s="15">
         <v>19</v>
       </c>
-      <c r="D27" s="9"/>
-      <c r="E27" s="9"/>
-      <c r="F27" s="9"/>
-      <c r="G27" s="9"/>
-      <c r="H27" s="9"/>
-      <c r="I27" s="9"/>
-      <c r="J27" s="9"/>
-      <c r="K27" s="9"/>
-      <c r="L27" s="10"/>
+      <c r="D27" s="10"/>
+      <c r="E27" s="10"/>
+      <c r="F27" s="10"/>
+      <c r="G27" s="10"/>
+      <c r="H27" s="10"/>
+      <c r="I27" s="10"/>
+      <c r="J27" s="10"/>
+      <c r="K27" s="10"/>
+      <c r="L27" s="11"/>
     </row>
     <row r="28" spans="3:12" x14ac:dyDescent="0.3">
-      <c r="C28" s="14">
+      <c r="C28" s="15">
         <v>20</v>
       </c>
-      <c r="D28" s="9"/>
-      <c r="E28" s="9"/>
-      <c r="F28" s="9"/>
-      <c r="G28" s="9"/>
-      <c r="H28" s="9"/>
-      <c r="I28" s="9"/>
-      <c r="J28" s="9"/>
-      <c r="K28" s="9"/>
-      <c r="L28" s="10"/>
+      <c r="D28" s="10"/>
+      <c r="E28" s="10"/>
+      <c r="F28" s="10"/>
+      <c r="G28" s="10"/>
+      <c r="H28" s="10"/>
+      <c r="I28" s="10"/>
+      <c r="J28" s="10"/>
+      <c r="K28" s="10"/>
+      <c r="L28" s="11"/>
     </row>
     <row r="29" spans="3:12" x14ac:dyDescent="0.3">
-      <c r="C29" s="14">
+      <c r="C29" s="15">
         <v>21</v>
       </c>
-      <c r="D29" s="9"/>
-      <c r="E29" s="9"/>
-      <c r="F29" s="9"/>
-      <c r="G29" s="9"/>
-      <c r="H29" s="9"/>
-      <c r="I29" s="9"/>
-      <c r="J29" s="9"/>
-      <c r="K29" s="9"/>
-      <c r="L29" s="10"/>
+      <c r="D29" s="10"/>
+      <c r="E29" s="10"/>
+      <c r="F29" s="10"/>
+      <c r="G29" s="10"/>
+      <c r="H29" s="10"/>
+      <c r="I29" s="10"/>
+      <c r="J29" s="10"/>
+      <c r="K29" s="10"/>
+      <c r="L29" s="11"/>
     </row>
     <row r="30" spans="3:12" x14ac:dyDescent="0.3">
-      <c r="C30" s="14">
+      <c r="C30" s="15">
         <v>22</v>
       </c>
-      <c r="D30" s="9"/>
-      <c r="E30" s="9"/>
-      <c r="F30" s="9"/>
-      <c r="G30" s="9"/>
-      <c r="H30" s="9"/>
-      <c r="I30" s="9"/>
-      <c r="J30" s="9"/>
-      <c r="K30" s="9"/>
-      <c r="L30" s="10"/>
+      <c r="D30" s="10"/>
+      <c r="E30" s="10"/>
+      <c r="F30" s="10"/>
+      <c r="G30" s="10"/>
+      <c r="H30" s="10"/>
+      <c r="I30" s="10"/>
+      <c r="J30" s="10"/>
+      <c r="K30" s="10"/>
+      <c r="L30" s="11"/>
     </row>
     <row r="31" spans="3:12" x14ac:dyDescent="0.3">
-      <c r="C31" s="14">
+      <c r="C31" s="15">
         <v>23</v>
       </c>
-      <c r="D31" s="9"/>
-      <c r="E31" s="9"/>
-      <c r="F31" s="9"/>
-      <c r="G31" s="9"/>
-      <c r="H31" s="9"/>
-      <c r="I31" s="9"/>
-      <c r="J31" s="9"/>
-      <c r="K31" s="9"/>
-      <c r="L31" s="10"/>
+      <c r="D31" s="10"/>
+      <c r="E31" s="10"/>
+      <c r="F31" s="10"/>
+      <c r="G31" s="10"/>
+      <c r="H31" s="10"/>
+      <c r="I31" s="10"/>
+      <c r="J31" s="10"/>
+      <c r="K31" s="10"/>
+      <c r="L31" s="11"/>
     </row>
     <row r="32" spans="3:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C32" s="14">
+      <c r="C32" s="15">
         <v>24</v>
       </c>
-      <c r="D32" s="12"/>
-      <c r="E32" s="12"/>
-      <c r="F32" s="12"/>
-      <c r="G32" s="12"/>
-      <c r="H32" s="12"/>
-      <c r="I32" s="12"/>
-      <c r="J32" s="12"/>
-      <c r="K32" s="12"/>
-      <c r="L32" s="13"/>
+      <c r="D32" s="13"/>
+      <c r="E32" s="13"/>
+      <c r="F32" s="13"/>
+      <c r="G32" s="13"/>
+      <c r="H32" s="13"/>
+      <c r="I32" s="13"/>
+      <c r="J32" s="13"/>
+      <c r="K32" s="13"/>
+      <c r="L32" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="26">
@@ -1326,8 +1356,8 @@
   <dimension ref="A1:S32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="O11" sqref="O11:S11"/>
+      <pane ySplit="4" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D8" sqref="D8:L8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1377,8 +1407,8 @@
     <row r="4" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
     <row r="6" spans="1:19" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B6" s="6"/>
-      <c r="C6" s="20" t="s">
-        <v>8</v>
+      <c r="C6" s="21" t="s">
+        <v>7</v>
       </c>
       <c r="D6" s="5"/>
       <c r="E6" s="5"/>
@@ -1393,40 +1423,40 @@
     </row>
     <row r="7" spans="1:19" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="8" spans="1:19" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C8" s="19" t="s">
+      <c r="C8" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="D8" s="17" t="s">
+      <c r="D8" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="E8" s="17"/>
-      <c r="F8" s="17"/>
-      <c r="G8" s="17"/>
-      <c r="H8" s="17"/>
-      <c r="I8" s="17"/>
-      <c r="J8" s="17"/>
-      <c r="K8" s="17"/>
-      <c r="L8" s="18"/>
+      <c r="E8" s="18"/>
+      <c r="F8" s="18"/>
+      <c r="G8" s="18"/>
+      <c r="H8" s="18"/>
+      <c r="I8" s="18"/>
+      <c r="J8" s="18"/>
+      <c r="K8" s="18"/>
+      <c r="L8" s="19"/>
       <c r="N8" s="3" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="C9" s="14"/>
-      <c r="D9" s="15"/>
-      <c r="E9" s="15"/>
-      <c r="F9" s="15"/>
-      <c r="G9" s="15"/>
-      <c r="H9" s="15"/>
-      <c r="I9" s="15"/>
-      <c r="J9" s="15"/>
-      <c r="K9" s="15"/>
-      <c r="L9" s="16"/>
+      <c r="C9" s="15"/>
+      <c r="D9" s="16"/>
+      <c r="E9" s="16"/>
+      <c r="F9" s="16"/>
+      <c r="G9" s="16"/>
+      <c r="H9" s="16"/>
+      <c r="I9" s="16"/>
+      <c r="J9" s="16"/>
+      <c r="K9" s="16"/>
+      <c r="L9" s="17"/>
       <c r="N9" t="s">
         <v>5</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="P9" s="7"/>
       <c r="Q9" s="7"/>
@@ -1434,84 +1464,92 @@
       <c r="S9" s="7"/>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="C10" s="8"/>
-      <c r="D10" s="9"/>
-      <c r="E10" s="9"/>
-      <c r="F10" s="9"/>
-      <c r="G10" s="9"/>
-      <c r="H10" s="9"/>
-      <c r="I10" s="9"/>
-      <c r="J10" s="9"/>
-      <c r="K10" s="9"/>
-      <c r="L10" s="10"/>
-      <c r="O10" s="7"/>
-      <c r="P10" s="7"/>
-      <c r="Q10" s="7"/>
-      <c r="R10" s="7"/>
-      <c r="S10" s="7"/>
+      <c r="C10" s="9"/>
+      <c r="D10" s="10"/>
+      <c r="E10" s="10"/>
+      <c r="F10" s="10"/>
+      <c r="G10" s="10"/>
+      <c r="H10" s="10"/>
+      <c r="I10" s="10"/>
+      <c r="J10" s="10"/>
+      <c r="K10" s="10"/>
+      <c r="L10" s="11"/>
+      <c r="O10" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="P10" s="22"/>
+      <c r="Q10" s="22"/>
+      <c r="R10" s="22"/>
+      <c r="S10" s="22"/>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="C11" s="8"/>
-      <c r="D11" s="9"/>
-      <c r="E11" s="9"/>
-      <c r="F11" s="9"/>
-      <c r="G11" s="9"/>
-      <c r="H11" s="9"/>
-      <c r="I11" s="9"/>
-      <c r="J11" s="9"/>
-      <c r="K11" s="9"/>
-      <c r="L11" s="10"/>
-      <c r="O11" s="7"/>
-      <c r="P11" s="7"/>
-      <c r="Q11" s="7"/>
-      <c r="R11" s="7"/>
-      <c r="S11" s="7"/>
+      <c r="C11" s="9"/>
+      <c r="D11" s="10"/>
+      <c r="E11" s="10"/>
+      <c r="F11" s="10"/>
+      <c r="G11" s="10"/>
+      <c r="H11" s="10"/>
+      <c r="I11" s="10"/>
+      <c r="J11" s="10"/>
+      <c r="K11" s="10"/>
+      <c r="L11" s="11"/>
+      <c r="O11" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="P11" s="8"/>
+      <c r="Q11" s="8"/>
+      <c r="R11" s="8"/>
+      <c r="S11" s="8"/>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="C12" s="8"/>
-      <c r="D12" s="9"/>
-      <c r="E12" s="9"/>
-      <c r="F12" s="9"/>
-      <c r="G12" s="9"/>
-      <c r="H12" s="9"/>
-      <c r="I12" s="9"/>
-      <c r="J12" s="9"/>
-      <c r="K12" s="9"/>
-      <c r="L12" s="10"/>
-      <c r="O12" s="7"/>
+      <c r="C12" s="9"/>
+      <c r="D12" s="10"/>
+      <c r="E12" s="10"/>
+      <c r="F12" s="10"/>
+      <c r="G12" s="10"/>
+      <c r="H12" s="10"/>
+      <c r="I12" s="10"/>
+      <c r="J12" s="10"/>
+      <c r="K12" s="10"/>
+      <c r="L12" s="11"/>
+      <c r="O12" s="7" t="s">
+        <v>19</v>
+      </c>
       <c r="P12" s="7"/>
       <c r="Q12" s="7"/>
       <c r="R12" s="7"/>
       <c r="S12" s="7"/>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="C13" s="8"/>
-      <c r="D13" s="9"/>
-      <c r="E13" s="9"/>
-      <c r="F13" s="9"/>
-      <c r="G13" s="9"/>
-      <c r="H13" s="9"/>
-      <c r="I13" s="9"/>
-      <c r="J13" s="9"/>
-      <c r="K13" s="9"/>
-      <c r="L13" s="10"/>
-      <c r="O13" s="7"/>
+      <c r="C13" s="9"/>
+      <c r="D13" s="10"/>
+      <c r="E13" s="10"/>
+      <c r="F13" s="10"/>
+      <c r="G13" s="10"/>
+      <c r="H13" s="10"/>
+      <c r="I13" s="10"/>
+      <c r="J13" s="10"/>
+      <c r="K13" s="10"/>
+      <c r="L13" s="11"/>
+      <c r="O13" s="7" t="s">
+        <v>20</v>
+      </c>
       <c r="P13" s="7"/>
       <c r="Q13" s="7"/>
       <c r="R13" s="7"/>
       <c r="S13" s="7"/>
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="C14" s="8"/>
-      <c r="D14" s="9"/>
-      <c r="E14" s="9"/>
-      <c r="F14" s="9"/>
-      <c r="G14" s="9"/>
-      <c r="H14" s="9"/>
-      <c r="I14" s="9"/>
-      <c r="J14" s="9"/>
-      <c r="K14" s="9"/>
-      <c r="L14" s="10"/>
+      <c r="C14" s="9"/>
+      <c r="D14" s="10"/>
+      <c r="E14" s="10"/>
+      <c r="F14" s="10"/>
+      <c r="G14" s="10"/>
+      <c r="H14" s="10"/>
+      <c r="I14" s="10"/>
+      <c r="J14" s="10"/>
+      <c r="K14" s="10"/>
+      <c r="L14" s="11"/>
       <c r="O14" s="7"/>
       <c r="P14" s="7"/>
       <c r="Q14" s="7"/>
@@ -1519,228 +1557,227 @@
       <c r="S14" s="7"/>
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="C15" s="8"/>
-      <c r="D15" s="9"/>
-      <c r="E15" s="9"/>
-      <c r="F15" s="9"/>
-      <c r="G15" s="9"/>
-      <c r="H15" s="9"/>
-      <c r="I15" s="9"/>
-      <c r="J15" s="9"/>
-      <c r="K15" s="9"/>
-      <c r="L15" s="10"/>
+      <c r="C15" s="9"/>
+      <c r="D15" s="10"/>
+      <c r="E15" s="10"/>
+      <c r="F15" s="10"/>
+      <c r="G15" s="10"/>
+      <c r="H15" s="10"/>
+      <c r="I15" s="10"/>
+      <c r="J15" s="10"/>
+      <c r="K15" s="10"/>
+      <c r="L15" s="11"/>
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="C16" s="8"/>
-      <c r="D16" s="9"/>
-      <c r="E16" s="9"/>
-      <c r="F16" s="9"/>
-      <c r="G16" s="9"/>
-      <c r="H16" s="9"/>
-      <c r="I16" s="9"/>
-      <c r="J16" s="9"/>
-      <c r="K16" s="9"/>
-      <c r="L16" s="10"/>
+      <c r="C16" s="9"/>
+      <c r="D16" s="10"/>
+      <c r="E16" s="10"/>
+      <c r="F16" s="10"/>
+      <c r="G16" s="10"/>
+      <c r="H16" s="10"/>
+      <c r="I16" s="10"/>
+      <c r="J16" s="10"/>
+      <c r="K16" s="10"/>
+      <c r="L16" s="11"/>
     </row>
     <row r="17" spans="3:12" x14ac:dyDescent="0.3">
-      <c r="C17" s="8"/>
-      <c r="D17" s="9"/>
-      <c r="E17" s="9"/>
-      <c r="F17" s="9"/>
-      <c r="G17" s="9"/>
-      <c r="H17" s="9"/>
-      <c r="I17" s="9"/>
-      <c r="J17" s="9"/>
-      <c r="K17" s="9"/>
-      <c r="L17" s="10"/>
+      <c r="C17" s="9"/>
+      <c r="D17" s="10"/>
+      <c r="E17" s="10"/>
+      <c r="F17" s="10"/>
+      <c r="G17" s="10"/>
+      <c r="H17" s="10"/>
+      <c r="I17" s="10"/>
+      <c r="J17" s="10"/>
+      <c r="K17" s="10"/>
+      <c r="L17" s="11"/>
     </row>
     <row r="18" spans="3:12" x14ac:dyDescent="0.3">
-      <c r="C18" s="8"/>
-      <c r="D18" s="9"/>
-      <c r="E18" s="9"/>
-      <c r="F18" s="9"/>
-      <c r="G18" s="9"/>
-      <c r="H18" s="9"/>
-      <c r="I18" s="9"/>
-      <c r="J18" s="9"/>
-      <c r="K18" s="9"/>
-      <c r="L18" s="10"/>
+      <c r="C18" s="9"/>
+      <c r="D18" s="10"/>
+      <c r="E18" s="10"/>
+      <c r="F18" s="10"/>
+      <c r="G18" s="10"/>
+      <c r="H18" s="10"/>
+      <c r="I18" s="10"/>
+      <c r="J18" s="10"/>
+      <c r="K18" s="10"/>
+      <c r="L18" s="11"/>
     </row>
     <row r="19" spans="3:12" x14ac:dyDescent="0.3">
-      <c r="C19" s="8"/>
-      <c r="D19" s="9"/>
-      <c r="E19" s="9"/>
-      <c r="F19" s="9"/>
-      <c r="G19" s="9"/>
-      <c r="H19" s="9"/>
-      <c r="I19" s="9"/>
-      <c r="J19" s="9"/>
-      <c r="K19" s="9"/>
-      <c r="L19" s="10"/>
+      <c r="C19" s="9"/>
+      <c r="D19" s="10"/>
+      <c r="E19" s="10"/>
+      <c r="F19" s="10"/>
+      <c r="G19" s="10"/>
+      <c r="H19" s="10"/>
+      <c r="I19" s="10"/>
+      <c r="J19" s="10"/>
+      <c r="K19" s="10"/>
+      <c r="L19" s="11"/>
     </row>
     <row r="20" spans="3:12" x14ac:dyDescent="0.3">
-      <c r="C20" s="8"/>
-      <c r="D20" s="9"/>
-      <c r="E20" s="9"/>
-      <c r="F20" s="9"/>
-      <c r="G20" s="9"/>
-      <c r="H20" s="9"/>
-      <c r="I20" s="9"/>
-      <c r="J20" s="9"/>
-      <c r="K20" s="9"/>
-      <c r="L20" s="10"/>
+      <c r="C20" s="9"/>
+      <c r="D20" s="10"/>
+      <c r="E20" s="10"/>
+      <c r="F20" s="10"/>
+      <c r="G20" s="10"/>
+      <c r="H20" s="10"/>
+      <c r="I20" s="10"/>
+      <c r="J20" s="10"/>
+      <c r="K20" s="10"/>
+      <c r="L20" s="11"/>
     </row>
     <row r="21" spans="3:12" x14ac:dyDescent="0.3">
-      <c r="C21" s="8"/>
-      <c r="D21" s="9"/>
-      <c r="E21" s="9"/>
-      <c r="F21" s="9"/>
-      <c r="G21" s="9"/>
-      <c r="H21" s="9"/>
-      <c r="I21" s="9"/>
-      <c r="J21" s="9"/>
-      <c r="K21" s="9"/>
-      <c r="L21" s="10"/>
+      <c r="C21" s="9"/>
+      <c r="D21" s="10"/>
+      <c r="E21" s="10"/>
+      <c r="F21" s="10"/>
+      <c r="G21" s="10"/>
+      <c r="H21" s="10"/>
+      <c r="I21" s="10"/>
+      <c r="J21" s="10"/>
+      <c r="K21" s="10"/>
+      <c r="L21" s="11"/>
     </row>
     <row r="22" spans="3:12" x14ac:dyDescent="0.3">
-      <c r="C22" s="8"/>
-      <c r="D22" s="9"/>
-      <c r="E22" s="9"/>
-      <c r="F22" s="9"/>
-      <c r="G22" s="9"/>
-      <c r="H22" s="9"/>
-      <c r="I22" s="9"/>
-      <c r="J22" s="9"/>
-      <c r="K22" s="9"/>
-      <c r="L22" s="10"/>
+      <c r="C22" s="9"/>
+      <c r="D22" s="10"/>
+      <c r="E22" s="10"/>
+      <c r="F22" s="10"/>
+      <c r="G22" s="10"/>
+      <c r="H22" s="10"/>
+      <c r="I22" s="10"/>
+      <c r="J22" s="10"/>
+      <c r="K22" s="10"/>
+      <c r="L22" s="11"/>
     </row>
     <row r="23" spans="3:12" x14ac:dyDescent="0.3">
-      <c r="C23" s="8"/>
-      <c r="D23" s="9"/>
-      <c r="E23" s="9"/>
-      <c r="F23" s="9"/>
-      <c r="G23" s="9"/>
-      <c r="H23" s="9"/>
-      <c r="I23" s="9"/>
-      <c r="J23" s="9"/>
-      <c r="K23" s="9"/>
-      <c r="L23" s="10"/>
+      <c r="C23" s="9"/>
+      <c r="D23" s="10"/>
+      <c r="E23" s="10"/>
+      <c r="F23" s="10"/>
+      <c r="G23" s="10"/>
+      <c r="H23" s="10"/>
+      <c r="I23" s="10"/>
+      <c r="J23" s="10"/>
+      <c r="K23" s="10"/>
+      <c r="L23" s="11"/>
     </row>
     <row r="24" spans="3:12" x14ac:dyDescent="0.3">
-      <c r="C24" s="8"/>
-      <c r="D24" s="9"/>
-      <c r="E24" s="9"/>
-      <c r="F24" s="9"/>
-      <c r="G24" s="9"/>
-      <c r="H24" s="9"/>
-      <c r="I24" s="9"/>
-      <c r="J24" s="9"/>
-      <c r="K24" s="9"/>
-      <c r="L24" s="10"/>
+      <c r="C24" s="9"/>
+      <c r="D24" s="10"/>
+      <c r="E24" s="10"/>
+      <c r="F24" s="10"/>
+      <c r="G24" s="10"/>
+      <c r="H24" s="10"/>
+      <c r="I24" s="10"/>
+      <c r="J24" s="10"/>
+      <c r="K24" s="10"/>
+      <c r="L24" s="11"/>
     </row>
     <row r="25" spans="3:12" x14ac:dyDescent="0.3">
-      <c r="C25" s="8"/>
-      <c r="D25" s="9"/>
-      <c r="E25" s="9"/>
-      <c r="F25" s="9"/>
-      <c r="G25" s="9"/>
-      <c r="H25" s="9"/>
-      <c r="I25" s="9"/>
-      <c r="J25" s="9"/>
-      <c r="K25" s="9"/>
-      <c r="L25" s="10"/>
+      <c r="C25" s="9"/>
+      <c r="D25" s="10"/>
+      <c r="E25" s="10"/>
+      <c r="F25" s="10"/>
+      <c r="G25" s="10"/>
+      <c r="H25" s="10"/>
+      <c r="I25" s="10"/>
+      <c r="J25" s="10"/>
+      <c r="K25" s="10"/>
+      <c r="L25" s="11"/>
     </row>
     <row r="26" spans="3:12" x14ac:dyDescent="0.3">
-      <c r="C26" s="8"/>
-      <c r="D26" s="9"/>
-      <c r="E26" s="9"/>
-      <c r="F26" s="9"/>
-      <c r="G26" s="9"/>
-      <c r="H26" s="9"/>
-      <c r="I26" s="9"/>
-      <c r="J26" s="9"/>
-      <c r="K26" s="9"/>
-      <c r="L26" s="10"/>
+      <c r="C26" s="9"/>
+      <c r="D26" s="10"/>
+      <c r="E26" s="10"/>
+      <c r="F26" s="10"/>
+      <c r="G26" s="10"/>
+      <c r="H26" s="10"/>
+      <c r="I26" s="10"/>
+      <c r="J26" s="10"/>
+      <c r="K26" s="10"/>
+      <c r="L26" s="11"/>
     </row>
     <row r="27" spans="3:12" x14ac:dyDescent="0.3">
-      <c r="C27" s="8"/>
-      <c r="D27" s="9"/>
-      <c r="E27" s="9"/>
-      <c r="F27" s="9"/>
-      <c r="G27" s="9"/>
-      <c r="H27" s="9"/>
-      <c r="I27" s="9"/>
-      <c r="J27" s="9"/>
-      <c r="K27" s="9"/>
-      <c r="L27" s="10"/>
+      <c r="C27" s="9"/>
+      <c r="D27" s="10"/>
+      <c r="E27" s="10"/>
+      <c r="F27" s="10"/>
+      <c r="G27" s="10"/>
+      <c r="H27" s="10"/>
+      <c r="I27" s="10"/>
+      <c r="J27" s="10"/>
+      <c r="K27" s="10"/>
+      <c r="L27" s="11"/>
     </row>
     <row r="28" spans="3:12" x14ac:dyDescent="0.3">
-      <c r="C28" s="8"/>
-      <c r="D28" s="9"/>
-      <c r="E28" s="9"/>
-      <c r="F28" s="9"/>
-      <c r="G28" s="9"/>
-      <c r="H28" s="9"/>
-      <c r="I28" s="9"/>
-      <c r="J28" s="9"/>
-      <c r="K28" s="9"/>
-      <c r="L28" s="10"/>
+      <c r="C28" s="9"/>
+      <c r="D28" s="10"/>
+      <c r="E28" s="10"/>
+      <c r="F28" s="10"/>
+      <c r="G28" s="10"/>
+      <c r="H28" s="10"/>
+      <c r="I28" s="10"/>
+      <c r="J28" s="10"/>
+      <c r="K28" s="10"/>
+      <c r="L28" s="11"/>
     </row>
     <row r="29" spans="3:12" x14ac:dyDescent="0.3">
-      <c r="C29" s="8"/>
-      <c r="D29" s="9"/>
-      <c r="E29" s="9"/>
-      <c r="F29" s="9"/>
-      <c r="G29" s="9"/>
-      <c r="H29" s="9"/>
-      <c r="I29" s="9"/>
-      <c r="J29" s="9"/>
-      <c r="K29" s="9"/>
-      <c r="L29" s="10"/>
+      <c r="C29" s="9"/>
+      <c r="D29" s="10"/>
+      <c r="E29" s="10"/>
+      <c r="F29" s="10"/>
+      <c r="G29" s="10"/>
+      <c r="H29" s="10"/>
+      <c r="I29" s="10"/>
+      <c r="J29" s="10"/>
+      <c r="K29" s="10"/>
+      <c r="L29" s="11"/>
     </row>
     <row r="30" spans="3:12" x14ac:dyDescent="0.3">
-      <c r="C30" s="8"/>
-      <c r="D30" s="9"/>
-      <c r="E30" s="9"/>
-      <c r="F30" s="9"/>
-      <c r="G30" s="9"/>
-      <c r="H30" s="9"/>
-      <c r="I30" s="9"/>
-      <c r="J30" s="9"/>
-      <c r="K30" s="9"/>
-      <c r="L30" s="10"/>
+      <c r="C30" s="9"/>
+      <c r="D30" s="10"/>
+      <c r="E30" s="10"/>
+      <c r="F30" s="10"/>
+      <c r="G30" s="10"/>
+      <c r="H30" s="10"/>
+      <c r="I30" s="10"/>
+      <c r="J30" s="10"/>
+      <c r="K30" s="10"/>
+      <c r="L30" s="11"/>
     </row>
     <row r="31" spans="3:12" x14ac:dyDescent="0.3">
-      <c r="C31" s="8"/>
-      <c r="D31" s="9"/>
-      <c r="E31" s="9"/>
-      <c r="F31" s="9"/>
-      <c r="G31" s="9"/>
-      <c r="H31" s="9"/>
-      <c r="I31" s="9"/>
-      <c r="J31" s="9"/>
-      <c r="K31" s="9"/>
-      <c r="L31" s="10"/>
+      <c r="C31" s="9"/>
+      <c r="D31" s="10"/>
+      <c r="E31" s="10"/>
+      <c r="F31" s="10"/>
+      <c r="G31" s="10"/>
+      <c r="H31" s="10"/>
+      <c r="I31" s="10"/>
+      <c r="J31" s="10"/>
+      <c r="K31" s="10"/>
+      <c r="L31" s="11"/>
     </row>
     <row r="32" spans="3:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C32" s="11"/>
-      <c r="D32" s="12"/>
-      <c r="E32" s="12"/>
-      <c r="F32" s="12"/>
-      <c r="G32" s="12"/>
-      <c r="H32" s="12"/>
-      <c r="I32" s="12"/>
-      <c r="J32" s="12"/>
-      <c r="K32" s="12"/>
-      <c r="L32" s="13"/>
+      <c r="C32" s="12"/>
+      <c r="D32" s="13"/>
+      <c r="E32" s="13"/>
+      <c r="F32" s="13"/>
+      <c r="G32" s="13"/>
+      <c r="H32" s="13"/>
+      <c r="I32" s="13"/>
+      <c r="J32" s="13"/>
+      <c r="K32" s="13"/>
+      <c r="L32" s="14"/>
     </row>
   </sheetData>
-  <mergeCells count="32">
+  <mergeCells count="31">
     <mergeCell ref="D31:L31"/>
     <mergeCell ref="D32:L32"/>
     <mergeCell ref="O9:S9"/>
     <mergeCell ref="O10:S10"/>
-    <mergeCell ref="O11:S11"/>
     <mergeCell ref="O12:S12"/>
     <mergeCell ref="O13:S13"/>
     <mergeCell ref="O14:S14"/>
@@ -1780,7 +1817,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="P18" sqref="P18"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2:O3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1831,7 +1868,7 @@
     <row r="6" spans="1:15" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B6" s="6"/>
       <c r="C6" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D6" s="5"/>
       <c r="E6" s="5"/>
@@ -1859,7 +1896,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB66CA6E-47C8-4538-B093-184ECDCDD0DB}">
   <dimension ref="A1:O7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="I29" sqref="I29"/>
     </sheetView>
@@ -1911,8 +1948,8 @@
     <row r="4" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
     <row r="6" spans="1:15" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B6" s="6"/>
-      <c r="C6" s="20" t="s">
-        <v>16</v>
+      <c r="C6" s="21" t="s">
+        <v>15</v>
       </c>
       <c r="D6" s="5"/>
       <c r="E6" s="5"/>

--- a/기획/시스템 기획/시스템 기획 양식.xlsx
+++ b/기획/시스템 기획/시스템 기획 양식.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20367"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\0623_\Desktop\1team_UnityProject\기획\시스템 기획\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Daemin Kwon\Desktop\1team_UnityProject\기획\시스템 기획\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CE28562-B77B-43D4-BA9D-0A8B24C0DC80}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD8684CA-A972-4D5A-9225-89AC517524EF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{DD11F2F4-2E31-48F2-A5FF-40AACB5569F8}"/>
   </bookViews>
@@ -28,34 +28,13 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="21">
-  <si>
-    <r>
-      <t xml:space="preserve">  System : </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="18"/>
-        <color theme="0"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>LobyScene</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="18">
   <si>
     <t>No.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">  요구 기능</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> 'Loby Scene'에 필요한 기능</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -72,30 +51,6 @@
   </si>
   <si>
     <t xml:space="preserve"> 구조&amp;규칙</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>플레이어 레벨 표시 (인게임 레벨X)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>외부 재화 표시 ( + 버튼으로 상점 이동 기능 구현)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>플레이어 정보 (아이디, 레벨, 경험치, 룬 정보, 클리어 횟수)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Stage Scene 전환</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>UnitManagement Scene 전환 ( 스킨 적용, 강화 )</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Store Scene 전환 ( 유료 재화 구매, 스킨, 강화 가챠</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -124,6 +79,52 @@
   </si>
   <si>
     <t>클릭 시, 스테이지 화면으로 전환</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">  System : Combat Readiness </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color theme="0"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Scene</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'Combat Readiness  Scene'에 필요한 기능</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">  System : Combat Readiness  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color theme="0"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Scene</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>유닛 강화 체크 &amp; 적용</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>시너지 체크 &amp; 적용 (시각적으로 볼 수 있게)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -434,65 +435,65 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -887,8 +888,8 @@
   <dimension ref="A1:O32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="Q17" sqref="Q17"/>
+      <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D10" sqref="D10:L10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -900,65 +901,65 @@
   <sheetData>
     <row r="1" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="1:15" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
-      <c r="I2" s="2"/>
-      <c r="J2" s="2"/>
-      <c r="K2" s="2"/>
-      <c r="L2" s="2"/>
-      <c r="M2" s="2"/>
-      <c r="N2" s="2"/>
-      <c r="O2" s="2"/>
+      <c r="A2" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" s="20"/>
+      <c r="C2" s="20"/>
+      <c r="D2" s="20"/>
+      <c r="E2" s="20"/>
+      <c r="F2" s="20"/>
+      <c r="G2" s="20"/>
+      <c r="H2" s="20"/>
+      <c r="I2" s="20"/>
+      <c r="J2" s="20"/>
+      <c r="K2" s="20"/>
+      <c r="L2" s="20"/>
+      <c r="M2" s="20"/>
+      <c r="N2" s="20"/>
+      <c r="O2" s="20"/>
     </row>
     <row r="3" spans="1:15" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="2"/>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
-      <c r="H3" s="2"/>
-      <c r="I3" s="2"/>
-      <c r="J3" s="2"/>
-      <c r="K3" s="2"/>
-      <c r="L3" s="2"/>
-      <c r="M3" s="2"/>
-      <c r="N3" s="2"/>
-      <c r="O3" s="2"/>
+      <c r="A3" s="20"/>
+      <c r="B3" s="20"/>
+      <c r="C3" s="20"/>
+      <c r="D3" s="20"/>
+      <c r="E3" s="20"/>
+      <c r="F3" s="20"/>
+      <c r="G3" s="20"/>
+      <c r="H3" s="20"/>
+      <c r="I3" s="20"/>
+      <c r="J3" s="20"/>
+      <c r="K3" s="20"/>
+      <c r="L3" s="20"/>
+      <c r="M3" s="20"/>
+      <c r="N3" s="20"/>
+      <c r="O3" s="20"/>
     </row>
     <row r="4" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
     <row r="6" spans="1:15" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B6" s="6"/>
-      <c r="C6" s="21" t="s">
-        <v>2</v>
-      </c>
-      <c r="D6" s="5"/>
-      <c r="E6" s="5"/>
-      <c r="F6" s="5"/>
-      <c r="G6" s="5"/>
-      <c r="H6" s="5"/>
-      <c r="I6" s="5"/>
-      <c r="J6" s="5"/>
-      <c r="K6" s="5"/>
-      <c r="L6" s="5"/>
-      <c r="M6" s="5"/>
+      <c r="B6" s="5"/>
+      <c r="C6" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="D6" s="4"/>
+      <c r="E6" s="4"/>
+      <c r="F6" s="4"/>
+      <c r="G6" s="4"/>
+      <c r="H6" s="4"/>
+      <c r="I6" s="4"/>
+      <c r="J6" s="4"/>
+      <c r="K6" s="4"/>
+      <c r="L6" s="4"/>
+      <c r="M6" s="4"/>
     </row>
     <row r="7" spans="1:15" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="8" spans="1:15" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C8" s="20" t="s">
-        <v>1</v>
+      <c r="C8" s="10" t="s">
+        <v>0</v>
       </c>
       <c r="D8" s="18" t="s">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="E8" s="18"/>
       <c r="F8" s="18"/>
@@ -970,11 +971,11 @@
       <c r="L8" s="19"/>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="C9" s="15">
+      <c r="C9" s="9">
         <v>1</v>
       </c>
       <c r="D9" s="16" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="E9" s="16"/>
       <c r="F9" s="16"/>
@@ -986,339 +987,349 @@
       <c r="L9" s="17"/>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="C10" s="15">
+      <c r="C10" s="9">
         <v>2</v>
       </c>
-      <c r="D10" s="10" t="s">
+      <c r="D10" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="E10" s="12"/>
+      <c r="F10" s="12"/>
+      <c r="G10" s="12"/>
+      <c r="H10" s="12"/>
+      <c r="I10" s="12"/>
+      <c r="J10" s="12"/>
+      <c r="K10" s="12"/>
+      <c r="L10" s="13"/>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="C11" s="9">
+        <v>3</v>
+      </c>
+      <c r="D11" s="12"/>
+      <c r="E11" s="12"/>
+      <c r="F11" s="12"/>
+      <c r="G11" s="12"/>
+      <c r="H11" s="12"/>
+      <c r="I11" s="12"/>
+      <c r="J11" s="12"/>
+      <c r="K11" s="12"/>
+      <c r="L11" s="13"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="C12" s="9">
+        <v>4</v>
+      </c>
+      <c r="D12" s="12"/>
+      <c r="E12" s="12"/>
+      <c r="F12" s="12"/>
+      <c r="G12" s="12"/>
+      <c r="H12" s="12"/>
+      <c r="I12" s="12"/>
+      <c r="J12" s="12"/>
+      <c r="K12" s="12"/>
+      <c r="L12" s="13"/>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="C13" s="9">
+        <v>5</v>
+      </c>
+      <c r="D13" s="12"/>
+      <c r="E13" s="12"/>
+      <c r="F13" s="12"/>
+      <c r="G13" s="12"/>
+      <c r="H13" s="12"/>
+      <c r="I13" s="12"/>
+      <c r="J13" s="12"/>
+      <c r="K13" s="12"/>
+      <c r="L13" s="13"/>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="C14" s="9">
+        <v>6</v>
+      </c>
+      <c r="D14" s="12"/>
+      <c r="E14" s="12"/>
+      <c r="F14" s="12"/>
+      <c r="G14" s="12"/>
+      <c r="H14" s="12"/>
+      <c r="I14" s="12"/>
+      <c r="J14" s="12"/>
+      <c r="K14" s="12"/>
+      <c r="L14" s="13"/>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="C15" s="9">
+        <v>7</v>
+      </c>
+      <c r="D15" s="12"/>
+      <c r="E15" s="12"/>
+      <c r="F15" s="12"/>
+      <c r="G15" s="12"/>
+      <c r="H15" s="12"/>
+      <c r="I15" s="12"/>
+      <c r="J15" s="12"/>
+      <c r="K15" s="12"/>
+      <c r="L15" s="13"/>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="C16" s="9">
+        <v>8</v>
+      </c>
+      <c r="D16" s="12"/>
+      <c r="E16" s="12"/>
+      <c r="F16" s="12"/>
+      <c r="G16" s="12"/>
+      <c r="H16" s="12"/>
+      <c r="I16" s="12"/>
+      <c r="J16" s="12"/>
+      <c r="K16" s="12"/>
+      <c r="L16" s="13"/>
+    </row>
+    <row r="17" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="C17" s="9">
         <v>9</v>
       </c>
-      <c r="E10" s="10"/>
-      <c r="F10" s="10"/>
-      <c r="G10" s="10"/>
-      <c r="H10" s="10"/>
-      <c r="I10" s="10"/>
-      <c r="J10" s="10"/>
-      <c r="K10" s="10"/>
-      <c r="L10" s="11"/>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="C11" s="15">
-        <v>3</v>
-      </c>
-      <c r="D11" s="10" t="s">
+      <c r="D17" s="12"/>
+      <c r="E17" s="12"/>
+      <c r="F17" s="12"/>
+      <c r="G17" s="12"/>
+      <c r="H17" s="12"/>
+      <c r="I17" s="12"/>
+      <c r="J17" s="12"/>
+      <c r="K17" s="12"/>
+      <c r="L17" s="13"/>
+    </row>
+    <row r="18" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="C18" s="9">
+        <v>10</v>
+      </c>
+      <c r="D18" s="12"/>
+      <c r="E18" s="12"/>
+      <c r="F18" s="12"/>
+      <c r="G18" s="12"/>
+      <c r="H18" s="12"/>
+      <c r="I18" s="12"/>
+      <c r="J18" s="12"/>
+      <c r="K18" s="12"/>
+      <c r="L18" s="13"/>
+    </row>
+    <row r="19" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="C19" s="9">
         <v>11</v>
       </c>
-      <c r="E11" s="10"/>
-      <c r="F11" s="10"/>
-      <c r="G11" s="10"/>
-      <c r="H11" s="10"/>
-      <c r="I11" s="10"/>
-      <c r="J11" s="10"/>
-      <c r="K11" s="10"/>
-      <c r="L11" s="11"/>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="C12" s="15">
-        <v>4</v>
-      </c>
-      <c r="D12" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="E12" s="10"/>
-      <c r="F12" s="10"/>
-      <c r="G12" s="10"/>
-      <c r="H12" s="10"/>
-      <c r="I12" s="10"/>
-      <c r="J12" s="10"/>
-      <c r="K12" s="10"/>
-      <c r="L12" s="11"/>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="C13" s="15">
-        <v>5</v>
-      </c>
-      <c r="D13" s="10" t="s">
+      <c r="D19" s="12"/>
+      <c r="E19" s="12"/>
+      <c r="F19" s="12"/>
+      <c r="G19" s="12"/>
+      <c r="H19" s="12"/>
+      <c r="I19" s="12"/>
+      <c r="J19" s="12"/>
+      <c r="K19" s="12"/>
+      <c r="L19" s="13"/>
+    </row>
+    <row r="20" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="C20" s="9">
         <v>12</v>
       </c>
-      <c r="E13" s="10"/>
-      <c r="F13" s="10"/>
-      <c r="G13" s="10"/>
-      <c r="H13" s="10"/>
-      <c r="I13" s="10"/>
-      <c r="J13" s="10"/>
-      <c r="K13" s="10"/>
-      <c r="L13" s="11"/>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="C14" s="15">
-        <v>6</v>
-      </c>
-      <c r="D14" s="10" t="s">
+      <c r="D20" s="12"/>
+      <c r="E20" s="12"/>
+      <c r="F20" s="12"/>
+      <c r="G20" s="12"/>
+      <c r="H20" s="12"/>
+      <c r="I20" s="12"/>
+      <c r="J20" s="12"/>
+      <c r="K20" s="12"/>
+      <c r="L20" s="13"/>
+    </row>
+    <row r="21" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="C21" s="9">
         <v>13</v>
       </c>
-      <c r="E14" s="10"/>
-      <c r="F14" s="10"/>
-      <c r="G14" s="10"/>
-      <c r="H14" s="10"/>
-      <c r="I14" s="10"/>
-      <c r="J14" s="10"/>
-      <c r="K14" s="10"/>
-      <c r="L14" s="11"/>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="C15" s="15">
-        <v>7</v>
-      </c>
-      <c r="D15" s="10"/>
-      <c r="E15" s="10"/>
-      <c r="F15" s="10"/>
-      <c r="G15" s="10"/>
-      <c r="H15" s="10"/>
-      <c r="I15" s="10"/>
-      <c r="J15" s="10"/>
-      <c r="K15" s="10"/>
-      <c r="L15" s="11"/>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="C16" s="15">
-        <v>8</v>
-      </c>
-      <c r="D16" s="10"/>
-      <c r="E16" s="10"/>
-      <c r="F16" s="10"/>
-      <c r="G16" s="10"/>
-      <c r="H16" s="10"/>
-      <c r="I16" s="10"/>
-      <c r="J16" s="10"/>
-      <c r="K16" s="10"/>
-      <c r="L16" s="11"/>
-    </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.3">
-      <c r="C17" s="15">
-        <v>9</v>
-      </c>
-      <c r="D17" s="10"/>
-      <c r="E17" s="10"/>
-      <c r="F17" s="10"/>
-      <c r="G17" s="10"/>
-      <c r="H17" s="10"/>
-      <c r="I17" s="10"/>
-      <c r="J17" s="10"/>
-      <c r="K17" s="10"/>
-      <c r="L17" s="11"/>
-    </row>
-    <row r="18" spans="3:12" x14ac:dyDescent="0.3">
-      <c r="C18" s="15">
-        <v>10</v>
-      </c>
-      <c r="D18" s="10"/>
-      <c r="E18" s="10"/>
-      <c r="F18" s="10"/>
-      <c r="G18" s="10"/>
-      <c r="H18" s="10"/>
-      <c r="I18" s="10"/>
-      <c r="J18" s="10"/>
-      <c r="K18" s="10"/>
-      <c r="L18" s="11"/>
-    </row>
-    <row r="19" spans="3:12" x14ac:dyDescent="0.3">
-      <c r="C19" s="15">
-        <v>11</v>
-      </c>
-      <c r="D19" s="10"/>
-      <c r="E19" s="10"/>
-      <c r="F19" s="10"/>
-      <c r="G19" s="10"/>
-      <c r="H19" s="10"/>
-      <c r="I19" s="10"/>
-      <c r="J19" s="10"/>
-      <c r="K19" s="10"/>
-      <c r="L19" s="11"/>
-    </row>
-    <row r="20" spans="3:12" x14ac:dyDescent="0.3">
-      <c r="C20" s="15">
-        <v>12</v>
-      </c>
-      <c r="D20" s="10"/>
-      <c r="E20" s="10"/>
-      <c r="F20" s="10"/>
-      <c r="G20" s="10"/>
-      <c r="H20" s="10"/>
-      <c r="I20" s="10"/>
-      <c r="J20" s="10"/>
-      <c r="K20" s="10"/>
-      <c r="L20" s="11"/>
-    </row>
-    <row r="21" spans="3:12" x14ac:dyDescent="0.3">
-      <c r="C21" s="15">
-        <v>13</v>
-      </c>
-      <c r="D21" s="10"/>
-      <c r="E21" s="10"/>
-      <c r="F21" s="10"/>
-      <c r="G21" s="10"/>
-      <c r="H21" s="10"/>
-      <c r="I21" s="10"/>
-      <c r="J21" s="10"/>
-      <c r="K21" s="10"/>
-      <c r="L21" s="11"/>
+      <c r="D21" s="12"/>
+      <c r="E21" s="12"/>
+      <c r="F21" s="12"/>
+      <c r="G21" s="12"/>
+      <c r="H21" s="12"/>
+      <c r="I21" s="12"/>
+      <c r="J21" s="12"/>
+      <c r="K21" s="12"/>
+      <c r="L21" s="13"/>
     </row>
     <row r="22" spans="3:12" x14ac:dyDescent="0.3">
-      <c r="C22" s="15">
+      <c r="C22" s="9">
         <v>14</v>
       </c>
-      <c r="D22" s="10"/>
-      <c r="E22" s="10"/>
-      <c r="F22" s="10"/>
-      <c r="G22" s="10"/>
-      <c r="H22" s="10"/>
-      <c r="I22" s="10"/>
-      <c r="J22" s="10"/>
-      <c r="K22" s="10"/>
-      <c r="L22" s="11"/>
+      <c r="D22" s="12"/>
+      <c r="E22" s="12"/>
+      <c r="F22" s="12"/>
+      <c r="G22" s="12"/>
+      <c r="H22" s="12"/>
+      <c r="I22" s="12"/>
+      <c r="J22" s="12"/>
+      <c r="K22" s="12"/>
+      <c r="L22" s="13"/>
     </row>
     <row r="23" spans="3:12" x14ac:dyDescent="0.3">
-      <c r="C23" s="15">
+      <c r="C23" s="9">
         <v>15</v>
       </c>
-      <c r="D23" s="10"/>
-      <c r="E23" s="10"/>
-      <c r="F23" s="10"/>
-      <c r="G23" s="10"/>
-      <c r="H23" s="10"/>
-      <c r="I23" s="10"/>
-      <c r="J23" s="10"/>
-      <c r="K23" s="10"/>
-      <c r="L23" s="11"/>
+      <c r="D23" s="12"/>
+      <c r="E23" s="12"/>
+      <c r="F23" s="12"/>
+      <c r="G23" s="12"/>
+      <c r="H23" s="12"/>
+      <c r="I23" s="12"/>
+      <c r="J23" s="12"/>
+      <c r="K23" s="12"/>
+      <c r="L23" s="13"/>
     </row>
     <row r="24" spans="3:12" x14ac:dyDescent="0.3">
-      <c r="C24" s="15">
+      <c r="C24" s="9">
         <v>16</v>
       </c>
-      <c r="D24" s="10"/>
-      <c r="E24" s="10"/>
-      <c r="F24" s="10"/>
-      <c r="G24" s="10"/>
-      <c r="H24" s="10"/>
-      <c r="I24" s="10"/>
-      <c r="J24" s="10"/>
-      <c r="K24" s="10"/>
-      <c r="L24" s="11"/>
+      <c r="D24" s="12"/>
+      <c r="E24" s="12"/>
+      <c r="F24" s="12"/>
+      <c r="G24" s="12"/>
+      <c r="H24" s="12"/>
+      <c r="I24" s="12"/>
+      <c r="J24" s="12"/>
+      <c r="K24" s="12"/>
+      <c r="L24" s="13"/>
     </row>
     <row r="25" spans="3:12" x14ac:dyDescent="0.3">
-      <c r="C25" s="15">
+      <c r="C25" s="9">
         <v>17</v>
       </c>
-      <c r="D25" s="10"/>
-      <c r="E25" s="10"/>
-      <c r="F25" s="10"/>
-      <c r="G25" s="10"/>
-      <c r="H25" s="10"/>
-      <c r="I25" s="10"/>
-      <c r="J25" s="10"/>
-      <c r="K25" s="10"/>
-      <c r="L25" s="11"/>
+      <c r="D25" s="12"/>
+      <c r="E25" s="12"/>
+      <c r="F25" s="12"/>
+      <c r="G25" s="12"/>
+      <c r="H25" s="12"/>
+      <c r="I25" s="12"/>
+      <c r="J25" s="12"/>
+      <c r="K25" s="12"/>
+      <c r="L25" s="13"/>
     </row>
     <row r="26" spans="3:12" x14ac:dyDescent="0.3">
-      <c r="C26" s="15">
+      <c r="C26" s="9">
         <v>18</v>
       </c>
-      <c r="D26" s="10"/>
-      <c r="E26" s="10"/>
-      <c r="F26" s="10"/>
-      <c r="G26" s="10"/>
-      <c r="H26" s="10"/>
-      <c r="I26" s="10"/>
-      <c r="J26" s="10"/>
-      <c r="K26" s="10"/>
-      <c r="L26" s="11"/>
+      <c r="D26" s="12"/>
+      <c r="E26" s="12"/>
+      <c r="F26" s="12"/>
+      <c r="G26" s="12"/>
+      <c r="H26" s="12"/>
+      <c r="I26" s="12"/>
+      <c r="J26" s="12"/>
+      <c r="K26" s="12"/>
+      <c r="L26" s="13"/>
     </row>
     <row r="27" spans="3:12" x14ac:dyDescent="0.3">
-      <c r="C27" s="15">
+      <c r="C27" s="9">
         <v>19</v>
       </c>
-      <c r="D27" s="10"/>
-      <c r="E27" s="10"/>
-      <c r="F27" s="10"/>
-      <c r="G27" s="10"/>
-      <c r="H27" s="10"/>
-      <c r="I27" s="10"/>
-      <c r="J27" s="10"/>
-      <c r="K27" s="10"/>
-      <c r="L27" s="11"/>
+      <c r="D27" s="12"/>
+      <c r="E27" s="12"/>
+      <c r="F27" s="12"/>
+      <c r="G27" s="12"/>
+      <c r="H27" s="12"/>
+      <c r="I27" s="12"/>
+      <c r="J27" s="12"/>
+      <c r="K27" s="12"/>
+      <c r="L27" s="13"/>
     </row>
     <row r="28" spans="3:12" x14ac:dyDescent="0.3">
-      <c r="C28" s="15">
+      <c r="C28" s="9">
         <v>20</v>
       </c>
-      <c r="D28" s="10"/>
-      <c r="E28" s="10"/>
-      <c r="F28" s="10"/>
-      <c r="G28" s="10"/>
-      <c r="H28" s="10"/>
-      <c r="I28" s="10"/>
-      <c r="J28" s="10"/>
-      <c r="K28" s="10"/>
-      <c r="L28" s="11"/>
+      <c r="D28" s="12"/>
+      <c r="E28" s="12"/>
+      <c r="F28" s="12"/>
+      <c r="G28" s="12"/>
+      <c r="H28" s="12"/>
+      <c r="I28" s="12"/>
+      <c r="J28" s="12"/>
+      <c r="K28" s="12"/>
+      <c r="L28" s="13"/>
     </row>
     <row r="29" spans="3:12" x14ac:dyDescent="0.3">
-      <c r="C29" s="15">
+      <c r="C29" s="9">
         <v>21</v>
       </c>
-      <c r="D29" s="10"/>
-      <c r="E29" s="10"/>
-      <c r="F29" s="10"/>
-      <c r="G29" s="10"/>
-      <c r="H29" s="10"/>
-      <c r="I29" s="10"/>
-      <c r="J29" s="10"/>
-      <c r="K29" s="10"/>
-      <c r="L29" s="11"/>
+      <c r="D29" s="12"/>
+      <c r="E29" s="12"/>
+      <c r="F29" s="12"/>
+      <c r="G29" s="12"/>
+      <c r="H29" s="12"/>
+      <c r="I29" s="12"/>
+      <c r="J29" s="12"/>
+      <c r="K29" s="12"/>
+      <c r="L29" s="13"/>
     </row>
     <row r="30" spans="3:12" x14ac:dyDescent="0.3">
-      <c r="C30" s="15">
+      <c r="C30" s="9">
         <v>22</v>
       </c>
-      <c r="D30" s="10"/>
-      <c r="E30" s="10"/>
-      <c r="F30" s="10"/>
-      <c r="G30" s="10"/>
-      <c r="H30" s="10"/>
-      <c r="I30" s="10"/>
-      <c r="J30" s="10"/>
-      <c r="K30" s="10"/>
-      <c r="L30" s="11"/>
+      <c r="D30" s="12"/>
+      <c r="E30" s="12"/>
+      <c r="F30" s="12"/>
+      <c r="G30" s="12"/>
+      <c r="H30" s="12"/>
+      <c r="I30" s="12"/>
+      <c r="J30" s="12"/>
+      <c r="K30" s="12"/>
+      <c r="L30" s="13"/>
     </row>
     <row r="31" spans="3:12" x14ac:dyDescent="0.3">
-      <c r="C31" s="15">
+      <c r="C31" s="9">
         <v>23</v>
       </c>
-      <c r="D31" s="10"/>
-      <c r="E31" s="10"/>
-      <c r="F31" s="10"/>
-      <c r="G31" s="10"/>
-      <c r="H31" s="10"/>
-      <c r="I31" s="10"/>
-      <c r="J31" s="10"/>
-      <c r="K31" s="10"/>
-      <c r="L31" s="11"/>
+      <c r="D31" s="12"/>
+      <c r="E31" s="12"/>
+      <c r="F31" s="12"/>
+      <c r="G31" s="12"/>
+      <c r="H31" s="12"/>
+      <c r="I31" s="12"/>
+      <c r="J31" s="12"/>
+      <c r="K31" s="12"/>
+      <c r="L31" s="13"/>
     </row>
     <row r="32" spans="3:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C32" s="15">
+      <c r="C32" s="9">
         <v>24</v>
       </c>
-      <c r="D32" s="13"/>
-      <c r="E32" s="13"/>
-      <c r="F32" s="13"/>
-      <c r="G32" s="13"/>
-      <c r="H32" s="13"/>
-      <c r="I32" s="13"/>
-      <c r="J32" s="13"/>
-      <c r="K32" s="13"/>
-      <c r="L32" s="14"/>
+      <c r="D32" s="14"/>
+      <c r="E32" s="14"/>
+      <c r="F32" s="14"/>
+      <c r="G32" s="14"/>
+      <c r="H32" s="14"/>
+      <c r="I32" s="14"/>
+      <c r="J32" s="14"/>
+      <c r="K32" s="14"/>
+      <c r="L32" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="26">
+    <mergeCell ref="A2:O3"/>
+    <mergeCell ref="D14:L14"/>
+    <mergeCell ref="D13:L13"/>
+    <mergeCell ref="D12:L12"/>
+    <mergeCell ref="D11:L11"/>
+    <mergeCell ref="D10:L10"/>
+    <mergeCell ref="D24:L24"/>
+    <mergeCell ref="D9:L9"/>
+    <mergeCell ref="D8:L8"/>
+    <mergeCell ref="D15:L15"/>
+    <mergeCell ref="D16:L16"/>
+    <mergeCell ref="D17:L17"/>
+    <mergeCell ref="D18:L18"/>
+    <mergeCell ref="D19:L19"/>
+    <mergeCell ref="D20:L20"/>
+    <mergeCell ref="D21:L21"/>
+    <mergeCell ref="D22:L22"/>
+    <mergeCell ref="D23:L23"/>
     <mergeCell ref="D31:L31"/>
     <mergeCell ref="D32:L32"/>
     <mergeCell ref="D25:L25"/>
@@ -1327,27 +1338,10 @@
     <mergeCell ref="D28:L28"/>
     <mergeCell ref="D29:L29"/>
     <mergeCell ref="D30:L30"/>
-    <mergeCell ref="D19:L19"/>
-    <mergeCell ref="D20:L20"/>
-    <mergeCell ref="D21:L21"/>
-    <mergeCell ref="D22:L22"/>
-    <mergeCell ref="D23:L23"/>
-    <mergeCell ref="D24:L24"/>
-    <mergeCell ref="D9:L9"/>
-    <mergeCell ref="D8:L8"/>
-    <mergeCell ref="D15:L15"/>
-    <mergeCell ref="D16:L16"/>
-    <mergeCell ref="D17:L17"/>
-    <mergeCell ref="D18:L18"/>
-    <mergeCell ref="A2:O3"/>
-    <mergeCell ref="D14:L14"/>
-    <mergeCell ref="D13:L13"/>
-    <mergeCell ref="D12:L12"/>
-    <mergeCell ref="D11:L11"/>
-    <mergeCell ref="D10:L10"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1357,7 +1351,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="4" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D8" sqref="D8:L8"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2:O3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1369,65 +1363,65 @@
   <sheetData>
     <row r="1" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="1:19" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
-      <c r="I2" s="2"/>
-      <c r="J2" s="2"/>
-      <c r="K2" s="2"/>
-      <c r="L2" s="2"/>
-      <c r="M2" s="2"/>
-      <c r="N2" s="2"/>
-      <c r="O2" s="2"/>
+      <c r="A2" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2" s="20"/>
+      <c r="C2" s="20"/>
+      <c r="D2" s="20"/>
+      <c r="E2" s="20"/>
+      <c r="F2" s="20"/>
+      <c r="G2" s="20"/>
+      <c r="H2" s="20"/>
+      <c r="I2" s="20"/>
+      <c r="J2" s="20"/>
+      <c r="K2" s="20"/>
+      <c r="L2" s="20"/>
+      <c r="M2" s="20"/>
+      <c r="N2" s="20"/>
+      <c r="O2" s="20"/>
     </row>
     <row r="3" spans="1:19" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="2"/>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
-      <c r="H3" s="2"/>
-      <c r="I3" s="2"/>
-      <c r="J3" s="2"/>
-      <c r="K3" s="2"/>
-      <c r="L3" s="2"/>
-      <c r="M3" s="2"/>
-      <c r="N3" s="2"/>
-      <c r="O3" s="2"/>
+      <c r="A3" s="20"/>
+      <c r="B3" s="20"/>
+      <c r="C3" s="20"/>
+      <c r="D3" s="20"/>
+      <c r="E3" s="20"/>
+      <c r="F3" s="20"/>
+      <c r="G3" s="20"/>
+      <c r="H3" s="20"/>
+      <c r="I3" s="20"/>
+      <c r="J3" s="20"/>
+      <c r="K3" s="20"/>
+      <c r="L3" s="20"/>
+      <c r="M3" s="20"/>
+      <c r="N3" s="20"/>
+      <c r="O3" s="20"/>
     </row>
     <row r="4" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
     <row r="6" spans="1:19" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B6" s="6"/>
-      <c r="C6" s="21" t="s">
-        <v>7</v>
-      </c>
-      <c r="D6" s="5"/>
-      <c r="E6" s="5"/>
-      <c r="F6" s="5"/>
-      <c r="G6" s="5"/>
-      <c r="H6" s="5"/>
-      <c r="I6" s="5"/>
-      <c r="J6" s="5"/>
-      <c r="K6" s="5"/>
-      <c r="L6" s="5"/>
-      <c r="M6" s="5"/>
+      <c r="B6" s="5"/>
+      <c r="C6" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="D6" s="4"/>
+      <c r="E6" s="4"/>
+      <c r="F6" s="4"/>
+      <c r="G6" s="4"/>
+      <c r="H6" s="4"/>
+      <c r="I6" s="4"/>
+      <c r="J6" s="4"/>
+      <c r="K6" s="4"/>
+      <c r="L6" s="4"/>
+      <c r="M6" s="4"/>
     </row>
     <row r="7" spans="1:19" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="8" spans="1:19" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C8" s="20" t="s">
-        <v>1</v>
+      <c r="C8" s="10" t="s">
+        <v>0</v>
       </c>
       <c r="D8" s="18" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E8" s="18"/>
       <c r="F8" s="18"/>
@@ -1437,12 +1431,12 @@
       <c r="J8" s="18"/>
       <c r="K8" s="18"/>
       <c r="L8" s="19"/>
-      <c r="N8" s="3" t="s">
-        <v>4</v>
+      <c r="N8" s="2" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="C9" s="15"/>
+      <c r="C9" s="9"/>
       <c r="D9" s="16"/>
       <c r="E9" s="16"/>
       <c r="F9" s="16"/>
@@ -1453,29 +1447,29 @@
       <c r="K9" s="16"/>
       <c r="L9" s="17"/>
       <c r="N9" t="s">
-        <v>5</v>
-      </c>
-      <c r="O9" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="P9" s="7"/>
-      <c r="Q9" s="7"/>
-      <c r="R9" s="7"/>
-      <c r="S9" s="7"/>
+        <v>3</v>
+      </c>
+      <c r="O9" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="P9" s="21"/>
+      <c r="Q9" s="21"/>
+      <c r="R9" s="21"/>
+      <c r="S9" s="21"/>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="C10" s="9"/>
-      <c r="D10" s="10"/>
-      <c r="E10" s="10"/>
-      <c r="F10" s="10"/>
-      <c r="G10" s="10"/>
-      <c r="H10" s="10"/>
-      <c r="I10" s="10"/>
-      <c r="J10" s="10"/>
-      <c r="K10" s="10"/>
-      <c r="L10" s="11"/>
+      <c r="C10" s="7"/>
+      <c r="D10" s="12"/>
+      <c r="E10" s="12"/>
+      <c r="F10" s="12"/>
+      <c r="G10" s="12"/>
+      <c r="H10" s="12"/>
+      <c r="I10" s="12"/>
+      <c r="J10" s="12"/>
+      <c r="K10" s="12"/>
+      <c r="L10" s="13"/>
       <c r="O10" s="22" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="P10" s="22"/>
       <c r="Q10" s="22"/>
@@ -1483,297 +1477,312 @@
       <c r="S10" s="22"/>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="C11" s="9"/>
-      <c r="D11" s="10"/>
-      <c r="E11" s="10"/>
-      <c r="F11" s="10"/>
-      <c r="G11" s="10"/>
-      <c r="H11" s="10"/>
-      <c r="I11" s="10"/>
-      <c r="J11" s="10"/>
-      <c r="K11" s="10"/>
-      <c r="L11" s="11"/>
-      <c r="O11" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="P11" s="8"/>
-      <c r="Q11" s="8"/>
-      <c r="R11" s="8"/>
-      <c r="S11" s="8"/>
+      <c r="C11" s="7"/>
+      <c r="D11" s="12"/>
+      <c r="E11" s="12"/>
+      <c r="F11" s="12"/>
+      <c r="G11" s="12"/>
+      <c r="H11" s="12"/>
+      <c r="I11" s="12"/>
+      <c r="J11" s="12"/>
+      <c r="K11" s="12"/>
+      <c r="L11" s="13"/>
+      <c r="O11" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="P11" s="6"/>
+      <c r="Q11" s="6"/>
+      <c r="R11" s="6"/>
+      <c r="S11" s="6"/>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="C12" s="9"/>
-      <c r="D12" s="10"/>
-      <c r="E12" s="10"/>
-      <c r="F12" s="10"/>
-      <c r="G12" s="10"/>
-      <c r="H12" s="10"/>
-      <c r="I12" s="10"/>
-      <c r="J12" s="10"/>
-      <c r="K12" s="10"/>
-      <c r="L12" s="11"/>
-      <c r="O12" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="P12" s="7"/>
-      <c r="Q12" s="7"/>
-      <c r="R12" s="7"/>
-      <c r="S12" s="7"/>
+      <c r="C12" s="7"/>
+      <c r="D12" s="12"/>
+      <c r="E12" s="12"/>
+      <c r="F12" s="12"/>
+      <c r="G12" s="12"/>
+      <c r="H12" s="12"/>
+      <c r="I12" s="12"/>
+      <c r="J12" s="12"/>
+      <c r="K12" s="12"/>
+      <c r="L12" s="13"/>
+      <c r="O12" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="P12" s="21"/>
+      <c r="Q12" s="21"/>
+      <c r="R12" s="21"/>
+      <c r="S12" s="21"/>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="C13" s="9"/>
-      <c r="D13" s="10"/>
-      <c r="E13" s="10"/>
-      <c r="F13" s="10"/>
-      <c r="G13" s="10"/>
-      <c r="H13" s="10"/>
-      <c r="I13" s="10"/>
-      <c r="J13" s="10"/>
-      <c r="K13" s="10"/>
-      <c r="L13" s="11"/>
-      <c r="O13" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="P13" s="7"/>
-      <c r="Q13" s="7"/>
-      <c r="R13" s="7"/>
-      <c r="S13" s="7"/>
+      <c r="C13" s="7"/>
+      <c r="D13" s="12"/>
+      <c r="E13" s="12"/>
+      <c r="F13" s="12"/>
+      <c r="G13" s="12"/>
+      <c r="H13" s="12"/>
+      <c r="I13" s="12"/>
+      <c r="J13" s="12"/>
+      <c r="K13" s="12"/>
+      <c r="L13" s="13"/>
+      <c r="O13" s="21" t="s">
+        <v>12</v>
+      </c>
+      <c r="P13" s="21"/>
+      <c r="Q13" s="21"/>
+      <c r="R13" s="21"/>
+      <c r="S13" s="21"/>
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="C14" s="9"/>
-      <c r="D14" s="10"/>
-      <c r="E14" s="10"/>
-      <c r="F14" s="10"/>
-      <c r="G14" s="10"/>
-      <c r="H14" s="10"/>
-      <c r="I14" s="10"/>
-      <c r="J14" s="10"/>
-      <c r="K14" s="10"/>
-      <c r="L14" s="11"/>
-      <c r="O14" s="7"/>
-      <c r="P14" s="7"/>
-      <c r="Q14" s="7"/>
-      <c r="R14" s="7"/>
-      <c r="S14" s="7"/>
+      <c r="C14" s="7"/>
+      <c r="D14" s="12"/>
+      <c r="E14" s="12"/>
+      <c r="F14" s="12"/>
+      <c r="G14" s="12"/>
+      <c r="H14" s="12"/>
+      <c r="I14" s="12"/>
+      <c r="J14" s="12"/>
+      <c r="K14" s="12"/>
+      <c r="L14" s="13"/>
+      <c r="O14" s="21"/>
+      <c r="P14" s="21"/>
+      <c r="Q14" s="21"/>
+      <c r="R14" s="21"/>
+      <c r="S14" s="21"/>
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="C15" s="9"/>
-      <c r="D15" s="10"/>
-      <c r="E15" s="10"/>
-      <c r="F15" s="10"/>
-      <c r="G15" s="10"/>
-      <c r="H15" s="10"/>
-      <c r="I15" s="10"/>
-      <c r="J15" s="10"/>
-      <c r="K15" s="10"/>
-      <c r="L15" s="11"/>
+      <c r="C15" s="7"/>
+      <c r="D15" s="12"/>
+      <c r="E15" s="12"/>
+      <c r="F15" s="12"/>
+      <c r="G15" s="12"/>
+      <c r="H15" s="12"/>
+      <c r="I15" s="12"/>
+      <c r="J15" s="12"/>
+      <c r="K15" s="12"/>
+      <c r="L15" s="13"/>
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="C16" s="9"/>
-      <c r="D16" s="10"/>
-      <c r="E16" s="10"/>
-      <c r="F16" s="10"/>
-      <c r="G16" s="10"/>
-      <c r="H16" s="10"/>
-      <c r="I16" s="10"/>
-      <c r="J16" s="10"/>
-      <c r="K16" s="10"/>
-      <c r="L16" s="11"/>
+      <c r="C16" s="7"/>
+      <c r="D16" s="12"/>
+      <c r="E16" s="12"/>
+      <c r="F16" s="12"/>
+      <c r="G16" s="12"/>
+      <c r="H16" s="12"/>
+      <c r="I16" s="12"/>
+      <c r="J16" s="12"/>
+      <c r="K16" s="12"/>
+      <c r="L16" s="13"/>
     </row>
     <row r="17" spans="3:12" x14ac:dyDescent="0.3">
-      <c r="C17" s="9"/>
-      <c r="D17" s="10"/>
-      <c r="E17" s="10"/>
-      <c r="F17" s="10"/>
-      <c r="G17" s="10"/>
-      <c r="H17" s="10"/>
-      <c r="I17" s="10"/>
-      <c r="J17" s="10"/>
-      <c r="K17" s="10"/>
-      <c r="L17" s="11"/>
+      <c r="C17" s="7"/>
+      <c r="D17" s="12"/>
+      <c r="E17" s="12"/>
+      <c r="F17" s="12"/>
+      <c r="G17" s="12"/>
+      <c r="H17" s="12"/>
+      <c r="I17" s="12"/>
+      <c r="J17" s="12"/>
+      <c r="K17" s="12"/>
+      <c r="L17" s="13"/>
     </row>
     <row r="18" spans="3:12" x14ac:dyDescent="0.3">
-      <c r="C18" s="9"/>
-      <c r="D18" s="10"/>
-      <c r="E18" s="10"/>
-      <c r="F18" s="10"/>
-      <c r="G18" s="10"/>
-      <c r="H18" s="10"/>
-      <c r="I18" s="10"/>
-      <c r="J18" s="10"/>
-      <c r="K18" s="10"/>
-      <c r="L18" s="11"/>
+      <c r="C18" s="7"/>
+      <c r="D18" s="12"/>
+      <c r="E18" s="12"/>
+      <c r="F18" s="12"/>
+      <c r="G18" s="12"/>
+      <c r="H18" s="12"/>
+      <c r="I18" s="12"/>
+      <c r="J18" s="12"/>
+      <c r="K18" s="12"/>
+      <c r="L18" s="13"/>
     </row>
     <row r="19" spans="3:12" x14ac:dyDescent="0.3">
-      <c r="C19" s="9"/>
-      <c r="D19" s="10"/>
-      <c r="E19" s="10"/>
-      <c r="F19" s="10"/>
-      <c r="G19" s="10"/>
-      <c r="H19" s="10"/>
-      <c r="I19" s="10"/>
-      <c r="J19" s="10"/>
-      <c r="K19" s="10"/>
-      <c r="L19" s="11"/>
+      <c r="C19" s="7"/>
+      <c r="D19" s="12"/>
+      <c r="E19" s="12"/>
+      <c r="F19" s="12"/>
+      <c r="G19" s="12"/>
+      <c r="H19" s="12"/>
+      <c r="I19" s="12"/>
+      <c r="J19" s="12"/>
+      <c r="K19" s="12"/>
+      <c r="L19" s="13"/>
     </row>
     <row r="20" spans="3:12" x14ac:dyDescent="0.3">
-      <c r="C20" s="9"/>
-      <c r="D20" s="10"/>
-      <c r="E20" s="10"/>
-      <c r="F20" s="10"/>
-      <c r="G20" s="10"/>
-      <c r="H20" s="10"/>
-      <c r="I20" s="10"/>
-      <c r="J20" s="10"/>
-      <c r="K20" s="10"/>
-      <c r="L20" s="11"/>
+      <c r="C20" s="7"/>
+      <c r="D20" s="12"/>
+      <c r="E20" s="12"/>
+      <c r="F20" s="12"/>
+      <c r="G20" s="12"/>
+      <c r="H20" s="12"/>
+      <c r="I20" s="12"/>
+      <c r="J20" s="12"/>
+      <c r="K20" s="12"/>
+      <c r="L20" s="13"/>
     </row>
     <row r="21" spans="3:12" x14ac:dyDescent="0.3">
-      <c r="C21" s="9"/>
-      <c r="D21" s="10"/>
-      <c r="E21" s="10"/>
-      <c r="F21" s="10"/>
-      <c r="G21" s="10"/>
-      <c r="H21" s="10"/>
-      <c r="I21" s="10"/>
-      <c r="J21" s="10"/>
-      <c r="K21" s="10"/>
-      <c r="L21" s="11"/>
+      <c r="C21" s="7"/>
+      <c r="D21" s="12"/>
+      <c r="E21" s="12"/>
+      <c r="F21" s="12"/>
+      <c r="G21" s="12"/>
+      <c r="H21" s="12"/>
+      <c r="I21" s="12"/>
+      <c r="J21" s="12"/>
+      <c r="K21" s="12"/>
+      <c r="L21" s="13"/>
     </row>
     <row r="22" spans="3:12" x14ac:dyDescent="0.3">
-      <c r="C22" s="9"/>
-      <c r="D22" s="10"/>
-      <c r="E22" s="10"/>
-      <c r="F22" s="10"/>
-      <c r="G22" s="10"/>
-      <c r="H22" s="10"/>
-      <c r="I22" s="10"/>
-      <c r="J22" s="10"/>
-      <c r="K22" s="10"/>
-      <c r="L22" s="11"/>
+      <c r="C22" s="7"/>
+      <c r="D22" s="12"/>
+      <c r="E22" s="12"/>
+      <c r="F22" s="12"/>
+      <c r="G22" s="12"/>
+      <c r="H22" s="12"/>
+      <c r="I22" s="12"/>
+      <c r="J22" s="12"/>
+      <c r="K22" s="12"/>
+      <c r="L22" s="13"/>
     </row>
     <row r="23" spans="3:12" x14ac:dyDescent="0.3">
-      <c r="C23" s="9"/>
-      <c r="D23" s="10"/>
-      <c r="E23" s="10"/>
-      <c r="F23" s="10"/>
-      <c r="G23" s="10"/>
-      <c r="H23" s="10"/>
-      <c r="I23" s="10"/>
-      <c r="J23" s="10"/>
-      <c r="K23" s="10"/>
-      <c r="L23" s="11"/>
+      <c r="C23" s="7"/>
+      <c r="D23" s="12"/>
+      <c r="E23" s="12"/>
+      <c r="F23" s="12"/>
+      <c r="G23" s="12"/>
+      <c r="H23" s="12"/>
+      <c r="I23" s="12"/>
+      <c r="J23" s="12"/>
+      <c r="K23" s="12"/>
+      <c r="L23" s="13"/>
     </row>
     <row r="24" spans="3:12" x14ac:dyDescent="0.3">
-      <c r="C24" s="9"/>
-      <c r="D24" s="10"/>
-      <c r="E24" s="10"/>
-      <c r="F24" s="10"/>
-      <c r="G24" s="10"/>
-      <c r="H24" s="10"/>
-      <c r="I24" s="10"/>
-      <c r="J24" s="10"/>
-      <c r="K24" s="10"/>
-      <c r="L24" s="11"/>
+      <c r="C24" s="7"/>
+      <c r="D24" s="12"/>
+      <c r="E24" s="12"/>
+      <c r="F24" s="12"/>
+      <c r="G24" s="12"/>
+      <c r="H24" s="12"/>
+      <c r="I24" s="12"/>
+      <c r="J24" s="12"/>
+      <c r="K24" s="12"/>
+      <c r="L24" s="13"/>
     </row>
     <row r="25" spans="3:12" x14ac:dyDescent="0.3">
-      <c r="C25" s="9"/>
-      <c r="D25" s="10"/>
-      <c r="E25" s="10"/>
-      <c r="F25" s="10"/>
-      <c r="G25" s="10"/>
-      <c r="H25" s="10"/>
-      <c r="I25" s="10"/>
-      <c r="J25" s="10"/>
-      <c r="K25" s="10"/>
-      <c r="L25" s="11"/>
+      <c r="C25" s="7"/>
+      <c r="D25" s="12"/>
+      <c r="E25" s="12"/>
+      <c r="F25" s="12"/>
+      <c r="G25" s="12"/>
+      <c r="H25" s="12"/>
+      <c r="I25" s="12"/>
+      <c r="J25" s="12"/>
+      <c r="K25" s="12"/>
+      <c r="L25" s="13"/>
     </row>
     <row r="26" spans="3:12" x14ac:dyDescent="0.3">
-      <c r="C26" s="9"/>
-      <c r="D26" s="10"/>
-      <c r="E26" s="10"/>
-      <c r="F26" s="10"/>
-      <c r="G26" s="10"/>
-      <c r="H26" s="10"/>
-      <c r="I26" s="10"/>
-      <c r="J26" s="10"/>
-      <c r="K26" s="10"/>
-      <c r="L26" s="11"/>
+      <c r="C26" s="7"/>
+      <c r="D26" s="12"/>
+      <c r="E26" s="12"/>
+      <c r="F26" s="12"/>
+      <c r="G26" s="12"/>
+      <c r="H26" s="12"/>
+      <c r="I26" s="12"/>
+      <c r="J26" s="12"/>
+      <c r="K26" s="12"/>
+      <c r="L26" s="13"/>
     </row>
     <row r="27" spans="3:12" x14ac:dyDescent="0.3">
-      <c r="C27" s="9"/>
-      <c r="D27" s="10"/>
-      <c r="E27" s="10"/>
-      <c r="F27" s="10"/>
-      <c r="G27" s="10"/>
-      <c r="H27" s="10"/>
-      <c r="I27" s="10"/>
-      <c r="J27" s="10"/>
-      <c r="K27" s="10"/>
-      <c r="L27" s="11"/>
+      <c r="C27" s="7"/>
+      <c r="D27" s="12"/>
+      <c r="E27" s="12"/>
+      <c r="F27" s="12"/>
+      <c r="G27" s="12"/>
+      <c r="H27" s="12"/>
+      <c r="I27" s="12"/>
+      <c r="J27" s="12"/>
+      <c r="K27" s="12"/>
+      <c r="L27" s="13"/>
     </row>
     <row r="28" spans="3:12" x14ac:dyDescent="0.3">
-      <c r="C28" s="9"/>
-      <c r="D28" s="10"/>
-      <c r="E28" s="10"/>
-      <c r="F28" s="10"/>
-      <c r="G28" s="10"/>
-      <c r="H28" s="10"/>
-      <c r="I28" s="10"/>
-      <c r="J28" s="10"/>
-      <c r="K28" s="10"/>
-      <c r="L28" s="11"/>
+      <c r="C28" s="7"/>
+      <c r="D28" s="12"/>
+      <c r="E28" s="12"/>
+      <c r="F28" s="12"/>
+      <c r="G28" s="12"/>
+      <c r="H28" s="12"/>
+      <c r="I28" s="12"/>
+      <c r="J28" s="12"/>
+      <c r="K28" s="12"/>
+      <c r="L28" s="13"/>
     </row>
     <row r="29" spans="3:12" x14ac:dyDescent="0.3">
-      <c r="C29" s="9"/>
-      <c r="D29" s="10"/>
-      <c r="E29" s="10"/>
-      <c r="F29" s="10"/>
-      <c r="G29" s="10"/>
-      <c r="H29" s="10"/>
-      <c r="I29" s="10"/>
-      <c r="J29" s="10"/>
-      <c r="K29" s="10"/>
-      <c r="L29" s="11"/>
+      <c r="C29" s="7"/>
+      <c r="D29" s="12"/>
+      <c r="E29" s="12"/>
+      <c r="F29" s="12"/>
+      <c r="G29" s="12"/>
+      <c r="H29" s="12"/>
+      <c r="I29" s="12"/>
+      <c r="J29" s="12"/>
+      <c r="K29" s="12"/>
+      <c r="L29" s="13"/>
     </row>
     <row r="30" spans="3:12" x14ac:dyDescent="0.3">
-      <c r="C30" s="9"/>
-      <c r="D30" s="10"/>
-      <c r="E30" s="10"/>
-      <c r="F30" s="10"/>
-      <c r="G30" s="10"/>
-      <c r="H30" s="10"/>
-      <c r="I30" s="10"/>
-      <c r="J30" s="10"/>
-      <c r="K30" s="10"/>
-      <c r="L30" s="11"/>
+      <c r="C30" s="7"/>
+      <c r="D30" s="12"/>
+      <c r="E30" s="12"/>
+      <c r="F30" s="12"/>
+      <c r="G30" s="12"/>
+      <c r="H30" s="12"/>
+      <c r="I30" s="12"/>
+      <c r="J30" s="12"/>
+      <c r="K30" s="12"/>
+      <c r="L30" s="13"/>
     </row>
     <row r="31" spans="3:12" x14ac:dyDescent="0.3">
-      <c r="C31" s="9"/>
-      <c r="D31" s="10"/>
-      <c r="E31" s="10"/>
-      <c r="F31" s="10"/>
-      <c r="G31" s="10"/>
-      <c r="H31" s="10"/>
-      <c r="I31" s="10"/>
-      <c r="J31" s="10"/>
-      <c r="K31" s="10"/>
-      <c r="L31" s="11"/>
+      <c r="C31" s="7"/>
+      <c r="D31" s="12"/>
+      <c r="E31" s="12"/>
+      <c r="F31" s="12"/>
+      <c r="G31" s="12"/>
+      <c r="H31" s="12"/>
+      <c r="I31" s="12"/>
+      <c r="J31" s="12"/>
+      <c r="K31" s="12"/>
+      <c r="L31" s="13"/>
     </row>
     <row r="32" spans="3:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C32" s="12"/>
-      <c r="D32" s="13"/>
-      <c r="E32" s="13"/>
-      <c r="F32" s="13"/>
-      <c r="G32" s="13"/>
-      <c r="H32" s="13"/>
-      <c r="I32" s="13"/>
-      <c r="J32" s="13"/>
-      <c r="K32" s="13"/>
-      <c r="L32" s="14"/>
+      <c r="C32" s="8"/>
+      <c r="D32" s="14"/>
+      <c r="E32" s="14"/>
+      <c r="F32" s="14"/>
+      <c r="G32" s="14"/>
+      <c r="H32" s="14"/>
+      <c r="I32" s="14"/>
+      <c r="J32" s="14"/>
+      <c r="K32" s="14"/>
+      <c r="L32" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="31">
+    <mergeCell ref="D12:L12"/>
+    <mergeCell ref="A2:O3"/>
+    <mergeCell ref="D8:L8"/>
+    <mergeCell ref="D9:L9"/>
+    <mergeCell ref="D10:L10"/>
+    <mergeCell ref="D11:L11"/>
+    <mergeCell ref="D22:L22"/>
+    <mergeCell ref="D23:L23"/>
+    <mergeCell ref="D24:L24"/>
+    <mergeCell ref="D13:L13"/>
+    <mergeCell ref="D14:L14"/>
+    <mergeCell ref="D15:L15"/>
+    <mergeCell ref="D16:L16"/>
+    <mergeCell ref="D17:L17"/>
+    <mergeCell ref="D18:L18"/>
     <mergeCell ref="D31:L31"/>
     <mergeCell ref="D32:L32"/>
     <mergeCell ref="O9:S9"/>
@@ -1790,21 +1799,6 @@
     <mergeCell ref="D19:L19"/>
     <mergeCell ref="D20:L20"/>
     <mergeCell ref="D21:L21"/>
-    <mergeCell ref="D22:L22"/>
-    <mergeCell ref="D23:L23"/>
-    <mergeCell ref="D24:L24"/>
-    <mergeCell ref="D13:L13"/>
-    <mergeCell ref="D14:L14"/>
-    <mergeCell ref="D15:L15"/>
-    <mergeCell ref="D16:L16"/>
-    <mergeCell ref="D17:L17"/>
-    <mergeCell ref="D18:L18"/>
-    <mergeCell ref="A2:O3"/>
-    <mergeCell ref="D8:L8"/>
-    <mergeCell ref="D9:L9"/>
-    <mergeCell ref="D10:L10"/>
-    <mergeCell ref="D11:L11"/>
-    <mergeCell ref="D12:L12"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1829,57 +1823,57 @@
   <sheetData>
     <row r="1" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="1:15" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
-      <c r="I2" s="2"/>
-      <c r="J2" s="2"/>
-      <c r="K2" s="2"/>
-      <c r="L2" s="2"/>
-      <c r="M2" s="2"/>
-      <c r="N2" s="2"/>
-      <c r="O2" s="2"/>
+      <c r="A2" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2" s="20"/>
+      <c r="C2" s="20"/>
+      <c r="D2" s="20"/>
+      <c r="E2" s="20"/>
+      <c r="F2" s="20"/>
+      <c r="G2" s="20"/>
+      <c r="H2" s="20"/>
+      <c r="I2" s="20"/>
+      <c r="J2" s="20"/>
+      <c r="K2" s="20"/>
+      <c r="L2" s="20"/>
+      <c r="M2" s="20"/>
+      <c r="N2" s="20"/>
+      <c r="O2" s="20"/>
     </row>
     <row r="3" spans="1:15" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="2"/>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
-      <c r="H3" s="2"/>
-      <c r="I3" s="2"/>
-      <c r="J3" s="2"/>
-      <c r="K3" s="2"/>
-      <c r="L3" s="2"/>
-      <c r="M3" s="2"/>
-      <c r="N3" s="2"/>
-      <c r="O3" s="2"/>
+      <c r="A3" s="20"/>
+      <c r="B3" s="20"/>
+      <c r="C3" s="20"/>
+      <c r="D3" s="20"/>
+      <c r="E3" s="20"/>
+      <c r="F3" s="20"/>
+      <c r="G3" s="20"/>
+      <c r="H3" s="20"/>
+      <c r="I3" s="20"/>
+      <c r="J3" s="20"/>
+      <c r="K3" s="20"/>
+      <c r="L3" s="20"/>
+      <c r="M3" s="20"/>
+      <c r="N3" s="20"/>
+      <c r="O3" s="20"/>
     </row>
     <row r="4" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
     <row r="6" spans="1:15" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B6" s="6"/>
-      <c r="C6" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D6" s="5"/>
-      <c r="E6" s="5"/>
-      <c r="F6" s="5"/>
-      <c r="G6" s="5"/>
-      <c r="H6" s="5"/>
-      <c r="I6" s="5"/>
-      <c r="J6" s="5"/>
-      <c r="K6" s="5"/>
-      <c r="L6" s="5"/>
-      <c r="M6" s="5"/>
+      <c r="B6" s="5"/>
+      <c r="C6" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D6" s="4"/>
+      <c r="E6" s="4"/>
+      <c r="F6" s="4"/>
+      <c r="G6" s="4"/>
+      <c r="H6" s="4"/>
+      <c r="I6" s="4"/>
+      <c r="J6" s="4"/>
+      <c r="K6" s="4"/>
+      <c r="L6" s="4"/>
+      <c r="M6" s="4"/>
     </row>
     <row r="7" spans="1:15" ht="17.25" thickTop="1" x14ac:dyDescent="0.3"/>
   </sheetData>
@@ -1898,7 +1892,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I29" sqref="I29"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2:O3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1910,57 +1904,57 @@
   <sheetData>
     <row r="1" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="1:15" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
-      <c r="I2" s="2"/>
-      <c r="J2" s="2"/>
-      <c r="K2" s="2"/>
-      <c r="L2" s="2"/>
-      <c r="M2" s="2"/>
-      <c r="N2" s="2"/>
-      <c r="O2" s="2"/>
+      <c r="A2" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2" s="20"/>
+      <c r="C2" s="20"/>
+      <c r="D2" s="20"/>
+      <c r="E2" s="20"/>
+      <c r="F2" s="20"/>
+      <c r="G2" s="20"/>
+      <c r="H2" s="20"/>
+      <c r="I2" s="20"/>
+      <c r="J2" s="20"/>
+      <c r="K2" s="20"/>
+      <c r="L2" s="20"/>
+      <c r="M2" s="20"/>
+      <c r="N2" s="20"/>
+      <c r="O2" s="20"/>
     </row>
     <row r="3" spans="1:15" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="2"/>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
-      <c r="H3" s="2"/>
-      <c r="I3" s="2"/>
-      <c r="J3" s="2"/>
-      <c r="K3" s="2"/>
-      <c r="L3" s="2"/>
-      <c r="M3" s="2"/>
-      <c r="N3" s="2"/>
-      <c r="O3" s="2"/>
+      <c r="A3" s="20"/>
+      <c r="B3" s="20"/>
+      <c r="C3" s="20"/>
+      <c r="D3" s="20"/>
+      <c r="E3" s="20"/>
+      <c r="F3" s="20"/>
+      <c r="G3" s="20"/>
+      <c r="H3" s="20"/>
+      <c r="I3" s="20"/>
+      <c r="J3" s="20"/>
+      <c r="K3" s="20"/>
+      <c r="L3" s="20"/>
+      <c r="M3" s="20"/>
+      <c r="N3" s="20"/>
+      <c r="O3" s="20"/>
     </row>
     <row r="4" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
     <row r="6" spans="1:15" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B6" s="6"/>
-      <c r="C6" s="21" t="s">
-        <v>15</v>
-      </c>
-      <c r="D6" s="5"/>
-      <c r="E6" s="5"/>
-      <c r="F6" s="5"/>
-      <c r="G6" s="5"/>
-      <c r="H6" s="5"/>
-      <c r="I6" s="5"/>
-      <c r="J6" s="5"/>
-      <c r="K6" s="5"/>
-      <c r="L6" s="5"/>
-      <c r="M6" s="5"/>
+      <c r="B6" s="5"/>
+      <c r="C6" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6" s="4"/>
+      <c r="E6" s="4"/>
+      <c r="F6" s="4"/>
+      <c r="G6" s="4"/>
+      <c r="H6" s="4"/>
+      <c r="I6" s="4"/>
+      <c r="J6" s="4"/>
+      <c r="K6" s="4"/>
+      <c r="L6" s="4"/>
+      <c r="M6" s="4"/>
     </row>
     <row r="7" spans="1:15" ht="17.25" thickTop="1" x14ac:dyDescent="0.3"/>
   </sheetData>
